--- a/exports/yield_files/LU 5 Late-1.xlsx
+++ b/exports/yield_files/LU 5 Late-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t xml:space="preserve">Test</t>
   </si>
@@ -86,7 +86,16 @@
     <t xml:space="preserve">N17-701</t>
   </si>
   <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
     <t xml:space="preserve">N17-882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t</t>
   </si>
   <si>
     <t xml:space="preserve">N17-2319</t>
@@ -101,10 +110,16 @@
     <t xml:space="preserve">N17-1459</t>
   </si>
   <si>
+    <t xml:space="preserve">s</t>
+  </si>
+  <si>
     <t xml:space="preserve">N17-1469</t>
   </si>
   <si>
     <t xml:space="preserve">N17-1853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W</t>
   </si>
   <si>
     <t xml:space="preserve">N17-2488</t>
@@ -123,6 +138,18 @@
   </si>
   <si>
     <t xml:space="preserve">N18-248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S-FO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W/M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
   </si>
   <si>
     <t xml:space="preserve">N18-303</t>
@@ -173,22 +200,16 @@
     <t xml:space="preserve">N16-8564</t>
   </si>
   <si>
+    <t xml:space="preserve">P-NL</t>
+  </si>
+  <si>
     <t xml:space="preserve">PLY</t>
   </si>
   <si>
     <t xml:space="preserve">p</t>
   </si>
   <si>
-    <t xml:space="preserve">g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t</t>
-  </si>
-  <si>
     <t xml:space="preserve">w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s</t>
   </si>
   <si>
     <t xml:space="preserve">r</t>
@@ -612,17 +633,33 @@
       </c>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
+      <c r="J2" t="n">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="n">
+        <v>36</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
+      <c r="R2" t="n">
+        <v>3013.1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U2" t="n">
         <v>54.3</v>
       </c>
@@ -651,17 +688,33 @@
       </c>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
+      <c r="J3" t="n">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="n">
+        <v>31</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
+      <c r="R3" t="n">
+        <v>2345.8</v>
+      </c>
+      <c r="S3" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U3" t="n">
         <v>54.8</v>
       </c>
@@ -691,15 +744,25 @@
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30</v>
+      </c>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
+      <c r="R4" t="n">
+        <v>2099.8</v>
+      </c>
+      <c r="S4" t="n">
+        <v>13.3</v>
+      </c>
       <c r="T4"/>
       <c r="U4" t="n">
         <v>55.2</v>
@@ -730,14 +793,20 @@
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5"/>
+      <c r="R5" t="n">
+        <v>1807.4</v>
+      </c>
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5" t="n">
@@ -755,7 +824,7 @@
         <v>2021</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -768,17 +837,33 @@
       </c>
       <c r="H6"/>
       <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
+      <c r="J6" t="n">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="n">
+        <v>34</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
+      <c r="R6" t="n">
+        <v>2270.9</v>
+      </c>
+      <c r="S6" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U6" t="n">
         <v>53.4</v>
       </c>
@@ -794,7 +879,7 @@
         <v>2021</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -807,17 +892,33 @@
       </c>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
+      <c r="J7" t="n">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" t="n">
+        <v>36</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
+      <c r="R7" t="n">
+        <v>2435.9</v>
+      </c>
+      <c r="S7" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U7" t="n">
         <v>53.6</v>
       </c>
@@ -833,7 +934,7 @@
         <v>2021</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -847,15 +948,25 @@
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="n">
+        <v>28</v>
+      </c>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
+      <c r="R8" t="n">
+        <v>1751.8</v>
+      </c>
+      <c r="S8" t="n">
+        <v>15.5</v>
+      </c>
       <c r="T8"/>
       <c r="U8" t="n">
         <v>54.6</v>
@@ -872,7 +983,7 @@
         <v>2021</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -886,14 +997,20 @@
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9"/>
+      <c r="R9" t="n">
+        <v>1629.3</v>
+      </c>
       <c r="S9"/>
       <c r="T9"/>
       <c r="U9" t="n">
@@ -911,7 +1028,7 @@
         <v>2021</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -924,17 +1041,33 @@
       </c>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
+      <c r="J10" t="n">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="n">
+        <v>34</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
+      <c r="R10" t="n">
+        <v>2529.2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>16</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U10" t="n">
         <v>56.8</v>
       </c>
@@ -950,7 +1083,7 @@
         <v>2021</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -963,17 +1096,33 @@
       </c>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
+      <c r="J11" t="n">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="n">
+        <v>33</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
+      <c r="R11" t="n">
+        <v>2345.4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U11" t="n">
         <v>56.6</v>
       </c>
@@ -989,7 +1138,7 @@
         <v>2021</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
@@ -1003,15 +1152,25 @@
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="n">
+        <v>31</v>
+      </c>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
+      <c r="R12" t="n">
+        <v>2054</v>
+      </c>
+      <c r="S12" t="n">
+        <v>15.6</v>
+      </c>
       <c r="T12"/>
       <c r="U12" t="n">
         <v>56.6</v>
@@ -1028,7 +1187,7 @@
         <v>2021</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -1042,14 +1201,20 @@
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
-      <c r="R13"/>
+      <c r="R13" t="n">
+        <v>2215.6</v>
+      </c>
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13" t="n">
@@ -1067,7 +1232,7 @@
         <v>2021</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1080,17 +1245,33 @@
       </c>
       <c r="H14"/>
       <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
+      <c r="J14" t="n">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" t="n">
+        <v>38</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2</v>
+      </c>
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
+      <c r="R14" t="n">
+        <v>2688.5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U14" t="n">
         <v>53.7</v>
       </c>
@@ -1106,7 +1287,7 @@
         <v>2021</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1119,17 +1300,33 @@
       </c>
       <c r="H15"/>
       <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
+      <c r="J15" t="n">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" t="n">
+        <v>38</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2</v>
+      </c>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
+      <c r="R15" t="n">
+        <v>2688.5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U15" t="n">
         <v>54.1</v>
       </c>
@@ -1145,7 +1342,7 @@
         <v>2021</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1158,17 +1355,33 @@
       </c>
       <c r="H16"/>
       <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
+      <c r="J16" t="n">
+        <v>15</v>
+      </c>
+      <c r="K16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" t="n">
+        <v>36</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
+      <c r="R16" t="n">
+        <v>2080.9</v>
+      </c>
+      <c r="S16" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U16" t="n">
         <v>54.3</v>
       </c>
@@ -1184,7 +1397,7 @@
         <v>2021</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1197,17 +1410,33 @@
       </c>
       <c r="H17"/>
       <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
+      <c r="J17" t="n">
+        <v>15</v>
+      </c>
+      <c r="K17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" t="n">
+        <v>36</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
+      <c r="R17" t="n">
+        <v>2080.9</v>
+      </c>
+      <c r="S17" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U17" t="n">
         <v>54.3</v>
       </c>
@@ -1223,7 +1452,7 @@
         <v>2021</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1237,15 +1466,25 @@
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
+      <c r="K18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="n">
+        <v>32</v>
+      </c>
       <c r="N18"/>
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
+      <c r="R18" t="n">
+        <v>1715.1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>14.5</v>
+      </c>
       <c r="T18"/>
       <c r="U18" t="n">
         <v>54.8</v>
@@ -1262,7 +1501,7 @@
         <v>2021</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1276,14 +1515,20 @@
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
+      <c r="K19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19"/>
-      <c r="R19"/>
+      <c r="R19" t="n">
+        <v>1513.7</v>
+      </c>
       <c r="S19"/>
       <c r="T19"/>
       <c r="U19" t="n">
@@ -1301,7 +1546,7 @@
         <v>2021</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1314,17 +1559,33 @@
       </c>
       <c r="H20"/>
       <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
+      <c r="J20" t="n">
+        <v>12</v>
+      </c>
+      <c r="K20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" t="n">
+        <v>34</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O20"/>
       <c r="P20"/>
       <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
+      <c r="R20" t="n">
+        <v>2598.6</v>
+      </c>
+      <c r="S20" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U20" t="n">
         <v>54.7</v>
       </c>
@@ -1340,7 +1601,7 @@
         <v>2021</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1353,17 +1614,33 @@
       </c>
       <c r="H21"/>
       <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
+      <c r="J21" t="n">
+        <v>12</v>
+      </c>
+      <c r="K21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" t="n">
+        <v>34</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
+      <c r="R21" t="n">
+        <v>2003.3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>14</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U21" t="n">
         <v>54.5</v>
       </c>
@@ -1379,7 +1656,7 @@
         <v>2021</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -1393,15 +1670,25 @@
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
+      <c r="K22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" t="n">
+        <v>36</v>
+      </c>
       <c r="N22"/>
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
+      <c r="R22" t="n">
+        <v>2015.8</v>
+      </c>
+      <c r="S22" t="n">
+        <v>13.2</v>
+      </c>
       <c r="T22"/>
       <c r="U22" t="n">
         <v>55.1</v>
@@ -1418,7 +1705,7 @@
         <v>2021</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
@@ -1432,14 +1719,20 @@
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
+      <c r="K23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
       <c r="M23"/>
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23"/>
-      <c r="R23"/>
+      <c r="R23" t="n">
+        <v>1524.2</v>
+      </c>
       <c r="S23"/>
       <c r="T23"/>
       <c r="U23" t="n">
@@ -1457,7 +1750,7 @@
         <v>2021</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E24" t="n">
         <v>6</v>
@@ -1470,17 +1763,33 @@
       </c>
       <c r="H24"/>
       <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
+      <c r="J24" t="n">
+        <v>15</v>
+      </c>
+      <c r="K24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" t="n">
+        <v>36</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
+      <c r="R24" t="n">
+        <v>2076.4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U24" t="n">
         <v>56.8</v>
       </c>
@@ -1496,7 +1805,7 @@
         <v>2021</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E25" t="n">
         <v>6</v>
@@ -1509,17 +1818,33 @@
       </c>
       <c r="H25"/>
       <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
+      <c r="J25" t="n">
+        <v>15</v>
+      </c>
+      <c r="K25" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" t="n">
+        <v>39</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
+      <c r="R25" t="n">
+        <v>2412.5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U25" t="n">
         <v>57.1</v>
       </c>
@@ -1535,7 +1860,7 @@
         <v>2021</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E26" t="n">
         <v>6</v>
@@ -1549,15 +1874,25 @@
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
+      <c r="K26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" t="n">
+        <v>38</v>
+      </c>
       <c r="N26"/>
       <c r="O26"/>
       <c r="P26"/>
       <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
+      <c r="R26" t="n">
+        <v>1937.1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>12.7</v>
+      </c>
       <c r="T26"/>
       <c r="U26" t="n">
         <v>57.4</v>
@@ -1574,7 +1909,7 @@
         <v>2021</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E27" t="n">
         <v>6</v>
@@ -1588,14 +1923,20 @@
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
+      <c r="K27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" t="s">
+        <v>32</v>
+      </c>
       <c r="M27"/>
       <c r="N27"/>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27"/>
-      <c r="R27"/>
+      <c r="R27" t="n">
+        <v>2119.3</v>
+      </c>
       <c r="S27"/>
       <c r="T27"/>
       <c r="U27" t="n">
@@ -1613,7 +1954,7 @@
         <v>2021</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
@@ -1626,17 +1967,33 @@
       </c>
       <c r="H28"/>
       <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
+      <c r="J28" t="n">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" t="n">
+        <v>39</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
+      <c r="R28" t="n">
+        <v>2584.4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U28" t="n">
         <v>54.7</v>
       </c>
@@ -1652,7 +2009,7 @@
         <v>2021</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
@@ -1665,17 +2022,33 @@
       </c>
       <c r="H29"/>
       <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
+      <c r="J29" t="n">
+        <v>13</v>
+      </c>
+      <c r="K29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" t="n">
+        <v>31</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
+      <c r="R29" t="n">
+        <v>2298.1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U29" t="n">
         <v>54.4</v>
       </c>
@@ -1691,7 +2064,7 @@
         <v>2021</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
@@ -1705,15 +2078,25 @@
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
+      <c r="K30" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" t="n">
+        <v>30</v>
+      </c>
       <c r="N30"/>
       <c r="O30"/>
       <c r="P30"/>
       <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
+      <c r="R30" t="n">
+        <v>1588.3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>15.3</v>
+      </c>
       <c r="T30"/>
       <c r="U30" t="n">
         <v>54.7</v>
@@ -1730,7 +2113,7 @@
         <v>2021</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
@@ -1744,14 +2127,20 @@
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
+      <c r="K31" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" t="s">
+        <v>27</v>
+      </c>
       <c r="M31"/>
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31"/>
       <c r="Q31"/>
-      <c r="R31"/>
+      <c r="R31" t="n">
+        <v>1586.9</v>
+      </c>
       <c r="S31"/>
       <c r="T31"/>
       <c r="U31" t="n">
@@ -1769,7 +2158,7 @@
         <v>2021</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -1782,17 +2171,33 @@
       </c>
       <c r="H32"/>
       <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
+      <c r="J32" t="n">
+        <v>18</v>
+      </c>
+      <c r="K32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" t="n">
+        <v>38</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2</v>
+      </c>
       <c r="O32"/>
       <c r="P32"/>
       <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
+      <c r="R32" t="n">
+        <v>2063.3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U32" t="n">
         <v>54.9</v>
       </c>
@@ -1808,7 +2213,7 @@
         <v>2021</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -1821,17 +2226,33 @@
       </c>
       <c r="H33"/>
       <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
+      <c r="J33" t="n">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" t="n">
+        <v>38</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
+      <c r="R33" t="n">
+        <v>1823.7</v>
+      </c>
+      <c r="S33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U33" t="n">
         <v>54.9</v>
       </c>
@@ -1847,7 +2268,7 @@
         <v>2021</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -1861,15 +2282,25 @@
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
+      <c r="K34" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" t="n">
+        <v>35</v>
+      </c>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
+      <c r="R34" t="n">
+        <v>1784.1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>14</v>
+      </c>
       <c r="T34"/>
       <c r="U34" t="n">
         <v>55.3</v>
@@ -1886,7 +2317,7 @@
         <v>2021</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -1900,14 +2331,20 @@
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
+      <c r="K35" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" t="s">
+        <v>25</v>
+      </c>
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
-      <c r="R35"/>
+      <c r="R35" t="n">
+        <v>1372.1</v>
+      </c>
       <c r="S35"/>
       <c r="T35"/>
       <c r="U35" t="n">
@@ -1925,7 +2362,7 @@
         <v>2021</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -1938,17 +2375,33 @@
       </c>
       <c r="H36"/>
       <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
+      <c r="J36" t="n">
+        <v>18</v>
+      </c>
+      <c r="K36" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" t="n">
+        <v>32</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
+      <c r="R36" t="n">
+        <v>1941.4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U36" t="n">
         <v>55.3</v>
       </c>
@@ -1964,7 +2417,7 @@
         <v>2021</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -1977,17 +2430,33 @@
       </c>
       <c r="H37"/>
       <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
+      <c r="J37" t="n">
+        <v>15</v>
+      </c>
+      <c r="K37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" t="n">
+        <v>34</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
-      <c r="R37"/>
-      <c r="S37"/>
-      <c r="T37"/>
+      <c r="R37" t="n">
+        <v>2629.6</v>
+      </c>
+      <c r="S37" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U37" t="n">
         <v>54.5</v>
       </c>
@@ -2003,7 +2472,7 @@
         <v>2021</v>
       </c>
       <c r="D38" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -2017,15 +2486,25 @@
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
+      <c r="K38" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" t="n">
+        <v>32</v>
+      </c>
       <c r="N38"/>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
+      <c r="R38" t="n">
+        <v>2024.9</v>
+      </c>
+      <c r="S38" t="n">
+        <v>15.6</v>
+      </c>
       <c r="T38"/>
       <c r="U38" t="n">
         <v>55</v>
@@ -2042,7 +2521,7 @@
         <v>2021</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -2056,14 +2535,20 @@
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
+      <c r="K39" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" t="s">
+        <v>25</v>
+      </c>
       <c r="M39"/>
       <c r="N39"/>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
-      <c r="R39"/>
+      <c r="R39" t="n">
+        <v>2121.1</v>
+      </c>
       <c r="S39"/>
       <c r="T39"/>
       <c r="U39" t="n">
@@ -2081,7 +2566,7 @@
         <v>2021</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -2094,17 +2579,33 @@
       </c>
       <c r="H40"/>
       <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
+      <c r="J40" t="n">
+        <v>14</v>
+      </c>
+      <c r="K40" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" t="s">
+        <v>25</v>
+      </c>
+      <c r="M40" t="n">
+        <v>38</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O40"/>
       <c r="P40"/>
       <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
-      <c r="T40"/>
+      <c r="R40" t="n">
+        <v>2470</v>
+      </c>
+      <c r="S40" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U40" t="n">
         <v>57.3</v>
       </c>
@@ -2120,7 +2621,7 @@
         <v>2021</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -2133,17 +2634,33 @@
       </c>
       <c r="H41"/>
       <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
+      <c r="J41" t="n">
+        <v>14</v>
+      </c>
+      <c r="K41" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" t="s">
+        <v>25</v>
+      </c>
+      <c r="M41" t="n">
+        <v>32</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41"/>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
+      <c r="R41" t="n">
+        <v>1362.7</v>
+      </c>
+      <c r="S41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U41" t="n">
         <v>57.9</v>
       </c>
@@ -2159,7 +2676,7 @@
         <v>2021</v>
       </c>
       <c r="D42" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -2173,15 +2690,25 @@
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
+      <c r="K42" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" t="n">
+        <v>33</v>
+      </c>
       <c r="N42"/>
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42"/>
-      <c r="R42"/>
-      <c r="S42"/>
+      <c r="R42" t="n">
+        <v>1560</v>
+      </c>
+      <c r="S42" t="n">
+        <v>11.9</v>
+      </c>
       <c r="T42"/>
       <c r="U42" t="n">
         <v>57.5</v>
@@ -2198,7 +2725,7 @@
         <v>2021</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -2212,14 +2739,20 @@
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
+      <c r="K43" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" t="s">
+        <v>25</v>
+      </c>
       <c r="M43"/>
       <c r="N43"/>
       <c r="O43"/>
       <c r="P43"/>
       <c r="Q43"/>
-      <c r="R43"/>
+      <c r="R43" t="n">
+        <v>1419.7</v>
+      </c>
       <c r="S43"/>
       <c r="T43"/>
       <c r="U43" t="n">
@@ -2237,7 +2770,7 @@
         <v>2021</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E44" t="n">
         <v>11</v>
@@ -2250,17 +2783,33 @@
       </c>
       <c r="H44"/>
       <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
-      <c r="N44"/>
+      <c r="J44" t="n">
+        <v>18</v>
+      </c>
+      <c r="K44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" t="n">
+        <v>32</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1</v>
+      </c>
       <c r="O44"/>
       <c r="P44"/>
       <c r="Q44"/>
-      <c r="R44"/>
-      <c r="S44"/>
-      <c r="T44"/>
+      <c r="R44" t="n">
+        <v>2787.7</v>
+      </c>
+      <c r="S44" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U44" t="n">
         <v>55.9</v>
       </c>
@@ -2276,7 +2825,7 @@
         <v>2021</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E45" t="n">
         <v>11</v>
@@ -2289,17 +2838,33 @@
       </c>
       <c r="H45"/>
       <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
+      <c r="J45" t="n">
+        <v>19</v>
+      </c>
+      <c r="K45" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" t="s">
+        <v>25</v>
+      </c>
+      <c r="M45" t="n">
+        <v>32</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45"/>
-      <c r="R45"/>
-      <c r="S45"/>
-      <c r="T45"/>
+      <c r="R45" t="n">
+        <v>1857.8</v>
+      </c>
+      <c r="S45" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U45" t="n">
         <v>56</v>
       </c>
@@ -2315,7 +2880,7 @@
         <v>2021</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E46" t="n">
         <v>11</v>
@@ -2329,15 +2894,25 @@
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
+      <c r="K46" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" t="s">
+        <v>32</v>
+      </c>
+      <c r="M46" t="n">
+        <v>28</v>
+      </c>
       <c r="N46"/>
       <c r="O46"/>
       <c r="P46"/>
       <c r="Q46"/>
-      <c r="R46"/>
-      <c r="S46"/>
+      <c r="R46" t="n">
+        <v>2141.8</v>
+      </c>
+      <c r="S46" t="n">
+        <v>14.1</v>
+      </c>
       <c r="T46"/>
       <c r="U46" t="n">
         <v>56.8</v>
@@ -2354,7 +2929,7 @@
         <v>2021</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E47" t="n">
         <v>11</v>
@@ -2368,14 +2943,20 @@
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
+      <c r="K47" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" t="s">
+        <v>32</v>
+      </c>
       <c r="M47"/>
       <c r="N47"/>
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
-      <c r="R47"/>
+      <c r="R47" t="n">
+        <v>2066.3</v>
+      </c>
       <c r="S47"/>
       <c r="T47"/>
       <c r="U47" t="n">
@@ -2393,7 +2974,7 @@
         <v>2021</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E48" t="n">
         <v>12</v>
@@ -2406,17 +2987,33 @@
       </c>
       <c r="H48"/>
       <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
-      <c r="N48"/>
+      <c r="J48" t="n">
+        <v>17</v>
+      </c>
+      <c r="K48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" t="s">
+        <v>25</v>
+      </c>
+      <c r="M48" t="n">
+        <v>34</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1</v>
+      </c>
       <c r="O48"/>
       <c r="P48"/>
       <c r="Q48"/>
-      <c r="R48"/>
-      <c r="S48"/>
-      <c r="T48"/>
+      <c r="R48" t="n">
+        <v>2622</v>
+      </c>
+      <c r="S48" t="n">
+        <v>16</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U48" t="n">
         <v>55.9</v>
       </c>
@@ -2432,7 +3029,7 @@
         <v>2021</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E49" t="n">
         <v>12</v>
@@ -2445,17 +3042,33 @@
       </c>
       <c r="H49"/>
       <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49"/>
-      <c r="N49"/>
+      <c r="J49" t="n">
+        <v>18</v>
+      </c>
+      <c r="K49" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M49" t="n">
+        <v>31</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
-      <c r="R49"/>
-      <c r="S49"/>
-      <c r="T49"/>
+      <c r="R49" t="n">
+        <v>2324.6</v>
+      </c>
+      <c r="S49" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U49" t="n">
         <v>56</v>
       </c>
@@ -2471,7 +3084,7 @@
         <v>2021</v>
       </c>
       <c r="D50" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E50" t="n">
         <v>12</v>
@@ -2485,15 +3098,25 @@
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
+      <c r="K50" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" t="s">
+        <v>25</v>
+      </c>
+      <c r="M50" t="n">
+        <v>32</v>
+      </c>
       <c r="N50"/>
       <c r="O50"/>
       <c r="P50"/>
       <c r="Q50"/>
-      <c r="R50"/>
-      <c r="S50"/>
+      <c r="R50" t="n">
+        <v>1770.1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>14</v>
+      </c>
       <c r="T50"/>
       <c r="U50" t="n">
         <v>56.8</v>
@@ -2510,7 +3133,7 @@
         <v>2021</v>
       </c>
       <c r="D51" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E51" t="n">
         <v>12</v>
@@ -2524,14 +3147,20 @@
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
+      <c r="K51" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" t="s">
+        <v>25</v>
+      </c>
       <c r="M51"/>
       <c r="N51"/>
       <c r="O51"/>
       <c r="P51"/>
       <c r="Q51"/>
-      <c r="R51"/>
+      <c r="R51" t="n">
+        <v>1803.2</v>
+      </c>
       <c r="S51"/>
       <c r="T51"/>
       <c r="U51" t="n">
@@ -2549,7 +3178,7 @@
         <v>2021</v>
       </c>
       <c r="D52" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -2562,17 +3191,33 @@
       </c>
       <c r="H52"/>
       <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52"/>
+      <c r="J52" t="n">
+        <v>14</v>
+      </c>
+      <c r="K52" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" t="s">
+        <v>27</v>
+      </c>
+      <c r="M52" t="n">
+        <v>37</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
       <c r="O52"/>
       <c r="P52"/>
       <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52"/>
-      <c r="T52"/>
+      <c r="R52" t="n">
+        <v>2366.4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U52" t="n">
         <v>57</v>
       </c>
@@ -2588,7 +3233,7 @@
         <v>2021</v>
       </c>
       <c r="D53" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -2601,17 +3246,33 @@
       </c>
       <c r="H53"/>
       <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
-      <c r="M53"/>
-      <c r="N53"/>
+      <c r="J53" t="n">
+        <v>13</v>
+      </c>
+      <c r="K53" t="s">
+        <v>24</v>
+      </c>
+      <c r="L53" t="s">
+        <v>27</v>
+      </c>
+      <c r="M53" t="n">
+        <v>32</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
       <c r="O53"/>
       <c r="P53"/>
       <c r="Q53"/>
-      <c r="R53"/>
-      <c r="S53"/>
-      <c r="T53"/>
+      <c r="R53" t="n">
+        <v>1830.2</v>
+      </c>
+      <c r="S53" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U53" t="n">
         <v>57.7</v>
       </c>
@@ -2627,7 +3288,7 @@
         <v>2021</v>
       </c>
       <c r="D54" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -2641,15 +3302,25 @@
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
+      <c r="K54" t="s">
+        <v>24</v>
+      </c>
+      <c r="L54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M54" t="n">
+        <v>31</v>
+      </c>
       <c r="N54"/>
       <c r="O54"/>
       <c r="P54"/>
       <c r="Q54"/>
-      <c r="R54"/>
-      <c r="S54"/>
+      <c r="R54" t="n">
+        <v>1608.9</v>
+      </c>
+      <c r="S54" t="n">
+        <v>12</v>
+      </c>
       <c r="T54"/>
       <c r="U54" t="n">
         <v>57</v>
@@ -2666,7 +3337,7 @@
         <v>2021</v>
       </c>
       <c r="D55" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -2680,14 +3351,20 @@
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
+      <c r="K55" t="s">
+        <v>24</v>
+      </c>
+      <c r="L55" t="s">
+        <v>27</v>
+      </c>
       <c r="M55"/>
       <c r="N55"/>
       <c r="O55"/>
       <c r="P55"/>
       <c r="Q55"/>
-      <c r="R55"/>
+      <c r="R55" t="n">
+        <v>1688.1</v>
+      </c>
       <c r="S55"/>
       <c r="T55"/>
       <c r="U55" t="n">
@@ -2705,7 +3382,7 @@
         <v>2021</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E56" t="n">
         <v>14</v>
@@ -2717,18 +3394,36 @@
         <v>3</v>
       </c>
       <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
-      <c r="N56"/>
+      <c r="I56" t="s">
+        <v>42</v>
+      </c>
+      <c r="J56" t="n">
+        <v>18</v>
+      </c>
+      <c r="K56" t="s">
+        <v>43</v>
+      </c>
+      <c r="L56" t="s">
+        <v>27</v>
+      </c>
+      <c r="M56" t="n">
+        <v>33</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O56"/>
       <c r="P56"/>
       <c r="Q56"/>
-      <c r="R56"/>
-      <c r="S56"/>
-      <c r="T56"/>
+      <c r="R56" t="n">
+        <v>2932.9</v>
+      </c>
+      <c r="S56" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U56" t="n">
         <v>54.8</v>
       </c>
@@ -2744,7 +3439,7 @@
         <v>2021</v>
       </c>
       <c r="D57" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E57" t="n">
         <v>14</v>
@@ -2756,18 +3451,36 @@
         <v>37</v>
       </c>
       <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
-      <c r="M57"/>
-      <c r="N57"/>
+      <c r="I57" t="s">
+        <v>42</v>
+      </c>
+      <c r="J57" t="n">
+        <v>18</v>
+      </c>
+      <c r="K57" t="s">
+        <v>43</v>
+      </c>
+      <c r="L57" t="s">
+        <v>27</v>
+      </c>
+      <c r="M57" t="n">
+        <v>31</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57"/>
-      <c r="R57"/>
-      <c r="S57"/>
-      <c r="T57"/>
+      <c r="R57" t="n">
+        <v>2496.1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U57" t="n">
         <v>54</v>
       </c>
@@ -2783,7 +3496,7 @@
         <v>2021</v>
       </c>
       <c r="D58" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E58" t="n">
         <v>14</v>
@@ -2795,17 +3508,29 @@
         <v>79</v>
       </c>
       <c r="H58"/>
-      <c r="I58"/>
+      <c r="I58" t="s">
+        <v>44</v>
+      </c>
       <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
+      <c r="K58" t="s">
+        <v>35</v>
+      </c>
+      <c r="L58" t="s">
+        <v>27</v>
+      </c>
+      <c r="M58" t="n">
+        <v>32</v>
+      </c>
       <c r="N58"/>
       <c r="O58"/>
       <c r="P58"/>
       <c r="Q58"/>
-      <c r="R58"/>
-      <c r="S58"/>
+      <c r="R58" t="n">
+        <v>2049.6</v>
+      </c>
+      <c r="S58" t="n">
+        <v>15.4</v>
+      </c>
       <c r="T58"/>
       <c r="U58" t="n">
         <v>53.8</v>
@@ -2822,7 +3547,7 @@
         <v>2021</v>
       </c>
       <c r="D59" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E59" t="n">
         <v>14</v>
@@ -2836,14 +3561,20 @@
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
+      <c r="K59" t="s">
+        <v>45</v>
+      </c>
+      <c r="L59" t="s">
+        <v>27</v>
+      </c>
       <c r="M59"/>
       <c r="N59"/>
       <c r="O59"/>
       <c r="P59"/>
       <c r="Q59"/>
-      <c r="R59"/>
+      <c r="R59" t="n">
+        <v>1531.6</v>
+      </c>
       <c r="S59"/>
       <c r="T59"/>
       <c r="U59" t="n">
@@ -2861,7 +3592,7 @@
         <v>2021</v>
       </c>
       <c r="D60" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E60" t="n">
         <v>15</v>
@@ -2874,17 +3605,33 @@
       </c>
       <c r="H60"/>
       <c r="I60"/>
-      <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60"/>
+      <c r="J60" t="n">
+        <v>18</v>
+      </c>
+      <c r="K60" t="s">
+        <v>24</v>
+      </c>
+      <c r="L60" t="s">
+        <v>27</v>
+      </c>
+      <c r="M60" t="n">
+        <v>38</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2</v>
+      </c>
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60"/>
-      <c r="R60"/>
-      <c r="S60"/>
-      <c r="T60"/>
+      <c r="R60" t="n">
+        <v>2470.5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U60" t="n">
         <v>55.8</v>
       </c>
@@ -2900,7 +3647,7 @@
         <v>2021</v>
       </c>
       <c r="D61" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E61" t="n">
         <v>15</v>
@@ -2913,17 +3660,33 @@
       </c>
       <c r="H61"/>
       <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
-      <c r="N61"/>
+      <c r="J61" t="n">
+        <v>17</v>
+      </c>
+      <c r="K61" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" t="s">
+        <v>27</v>
+      </c>
+      <c r="M61" t="n">
+        <v>31</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
       <c r="O61"/>
       <c r="P61"/>
       <c r="Q61"/>
-      <c r="R61"/>
-      <c r="S61"/>
-      <c r="T61"/>
+      <c r="R61" t="n">
+        <v>1921.2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U61" t="n">
         <v>55.1</v>
       </c>
@@ -2939,7 +3702,7 @@
         <v>2021</v>
       </c>
       <c r="D62" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E62" t="n">
         <v>15</v>
@@ -2953,15 +3716,25 @@
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
+      <c r="K62" t="s">
+        <v>24</v>
+      </c>
+      <c r="L62" t="s">
+        <v>27</v>
+      </c>
+      <c r="M62" t="n">
+        <v>34</v>
+      </c>
       <c r="N62"/>
       <c r="O62"/>
       <c r="P62"/>
       <c r="Q62"/>
-      <c r="R62"/>
-      <c r="S62"/>
+      <c r="R62" t="n">
+        <v>1865.3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>16.8</v>
+      </c>
       <c r="T62"/>
       <c r="U62" t="n">
         <v>56</v>
@@ -2978,7 +3751,7 @@
         <v>2021</v>
       </c>
       <c r="D63" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E63" t="n">
         <v>15</v>
@@ -2992,14 +3765,20 @@
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
-      <c r="K63"/>
-      <c r="L63"/>
+      <c r="K63" t="s">
+        <v>24</v>
+      </c>
+      <c r="L63" t="s">
+        <v>27</v>
+      </c>
       <c r="M63"/>
       <c r="N63"/>
       <c r="O63"/>
       <c r="P63"/>
       <c r="Q63"/>
-      <c r="R63"/>
+      <c r="R63" t="n">
+        <v>1706.9</v>
+      </c>
       <c r="S63"/>
       <c r="T63"/>
       <c r="U63" t="n">
@@ -3017,7 +3796,7 @@
         <v>2021</v>
       </c>
       <c r="D64" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -3030,17 +3809,33 @@
       </c>
       <c r="H64"/>
       <c r="I64"/>
-      <c r="J64"/>
-      <c r="K64"/>
-      <c r="L64"/>
-      <c r="M64"/>
-      <c r="N64"/>
+      <c r="J64" t="n">
+        <v>19</v>
+      </c>
+      <c r="K64" t="s">
+        <v>24</v>
+      </c>
+      <c r="L64" t="s">
+        <v>27</v>
+      </c>
+      <c r="M64" t="n">
+        <v>36</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1</v>
+      </c>
       <c r="O64"/>
       <c r="P64"/>
       <c r="Q64"/>
-      <c r="R64"/>
-      <c r="S64"/>
-      <c r="T64"/>
+      <c r="R64" t="n">
+        <v>2575.4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U64" t="n">
         <v>54.6</v>
       </c>
@@ -3056,7 +3851,7 @@
         <v>2021</v>
       </c>
       <c r="D65" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -3069,17 +3864,33 @@
       </c>
       <c r="H65"/>
       <c r="I65"/>
-      <c r="J65"/>
-      <c r="K65"/>
-      <c r="L65"/>
-      <c r="M65"/>
-      <c r="N65"/>
+      <c r="J65" t="n">
+        <v>18</v>
+      </c>
+      <c r="K65" t="s">
+        <v>24</v>
+      </c>
+      <c r="L65" t="s">
+        <v>27</v>
+      </c>
+      <c r="M65" t="n">
+        <v>35</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
       <c r="O65"/>
       <c r="P65"/>
       <c r="Q65"/>
-      <c r="R65"/>
-      <c r="S65"/>
-      <c r="T65"/>
+      <c r="R65" t="n">
+        <v>2644.1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U65" t="n">
         <v>53.9</v>
       </c>
@@ -3095,7 +3906,7 @@
         <v>2021</v>
       </c>
       <c r="D66" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E66" t="n">
         <v>16</v>
@@ -3109,15 +3920,25 @@
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
-      <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66"/>
+      <c r="K66" t="s">
+        <v>24</v>
+      </c>
+      <c r="L66" t="s">
+        <v>27</v>
+      </c>
+      <c r="M66" t="n">
+        <v>31</v>
+      </c>
       <c r="N66"/>
       <c r="O66"/>
       <c r="P66"/>
       <c r="Q66"/>
-      <c r="R66"/>
-      <c r="S66"/>
+      <c r="R66" t="n">
+        <v>1927.5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>14.3</v>
+      </c>
       <c r="T66"/>
       <c r="U66" t="n">
         <v>54.9</v>
@@ -3134,7 +3955,7 @@
         <v>2021</v>
       </c>
       <c r="D67" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E67" t="n">
         <v>16</v>
@@ -3148,14 +3969,20 @@
       <c r="H67"/>
       <c r="I67"/>
       <c r="J67"/>
-      <c r="K67"/>
-      <c r="L67"/>
+      <c r="K67" t="s">
+        <v>24</v>
+      </c>
+      <c r="L67" t="s">
+        <v>27</v>
+      </c>
       <c r="M67"/>
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67"/>
       <c r="Q67"/>
-      <c r="R67"/>
+      <c r="R67" t="n">
+        <v>1937.6</v>
+      </c>
       <c r="S67"/>
       <c r="T67"/>
       <c r="U67" t="n">
@@ -3173,7 +4000,7 @@
         <v>2021</v>
       </c>
       <c r="D68" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E68" t="n">
         <v>17</v>
@@ -3186,17 +4013,33 @@
       </c>
       <c r="H68"/>
       <c r="I68"/>
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
-      <c r="N68"/>
+      <c r="J68" t="n">
+        <v>18</v>
+      </c>
+      <c r="K68" t="s">
+        <v>24</v>
+      </c>
+      <c r="L68" t="s">
+        <v>27</v>
+      </c>
+      <c r="M68" t="n">
+        <v>38</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O68"/>
       <c r="P68"/>
       <c r="Q68"/>
-      <c r="R68"/>
-      <c r="S68"/>
-      <c r="T68"/>
+      <c r="R68" t="n">
+        <v>2461.6</v>
+      </c>
+      <c r="S68" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U68" t="n">
         <v>54.7</v>
       </c>
@@ -3212,7 +4055,7 @@
         <v>2021</v>
       </c>
       <c r="D69" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E69" t="n">
         <v>17</v>
@@ -3225,17 +4068,33 @@
       </c>
       <c r="H69"/>
       <c r="I69"/>
-      <c r="J69"/>
-      <c r="K69"/>
-      <c r="L69"/>
-      <c r="M69"/>
-      <c r="N69"/>
+      <c r="J69" t="n">
+        <v>17</v>
+      </c>
+      <c r="K69" t="s">
+        <v>24</v>
+      </c>
+      <c r="L69" t="s">
+        <v>27</v>
+      </c>
+      <c r="M69" t="n">
+        <v>38</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O69"/>
       <c r="P69"/>
       <c r="Q69"/>
-      <c r="R69"/>
-      <c r="S69"/>
-      <c r="T69"/>
+      <c r="R69" t="n">
+        <v>2498.2</v>
+      </c>
+      <c r="S69" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U69" t="n">
         <v>54.5</v>
       </c>
@@ -3251,7 +4110,7 @@
         <v>2021</v>
       </c>
       <c r="D70" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E70" t="n">
         <v>17</v>
@@ -3265,15 +4124,25 @@
       <c r="H70"/>
       <c r="I70"/>
       <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
+      <c r="K70" t="s">
+        <v>24</v>
+      </c>
+      <c r="L70" t="s">
+        <v>27</v>
+      </c>
+      <c r="M70" t="n">
+        <v>38</v>
+      </c>
       <c r="N70"/>
       <c r="O70"/>
       <c r="P70"/>
       <c r="Q70"/>
-      <c r="R70"/>
-      <c r="S70"/>
+      <c r="R70" t="n">
+        <v>2221.6</v>
+      </c>
+      <c r="S70" t="n">
+        <v>16.1</v>
+      </c>
       <c r="T70"/>
       <c r="U70" t="n">
         <v>54.3</v>
@@ -3290,7 +4159,7 @@
         <v>2021</v>
       </c>
       <c r="D71" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E71" t="n">
         <v>17</v>
@@ -3304,14 +4173,20 @@
       <c r="H71"/>
       <c r="I71"/>
       <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
+      <c r="K71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L71" t="s">
+        <v>27</v>
+      </c>
       <c r="M71"/>
       <c r="N71"/>
       <c r="O71"/>
       <c r="P71"/>
       <c r="Q71"/>
-      <c r="R71"/>
+      <c r="R71" t="n">
+        <v>1863</v>
+      </c>
       <c r="S71"/>
       <c r="T71"/>
       <c r="U71" t="n">
@@ -3329,7 +4204,7 @@
         <v>2021</v>
       </c>
       <c r="D72" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E72" t="n">
         <v>18</v>
@@ -3342,17 +4217,33 @@
       </c>
       <c r="H72"/>
       <c r="I72"/>
-      <c r="J72"/>
-      <c r="K72"/>
-      <c r="L72"/>
-      <c r="M72"/>
-      <c r="N72"/>
+      <c r="J72" t="n">
+        <v>18</v>
+      </c>
+      <c r="K72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L72" t="s">
+        <v>27</v>
+      </c>
+      <c r="M72" t="n">
+        <v>41</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2</v>
+      </c>
       <c r="O72"/>
       <c r="P72"/>
       <c r="Q72"/>
-      <c r="R72"/>
-      <c r="S72"/>
-      <c r="T72"/>
+      <c r="R72" t="n">
+        <v>2711.9</v>
+      </c>
+      <c r="S72" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U72" t="n">
         <v>55.1</v>
       </c>
@@ -3368,7 +4259,7 @@
         <v>2021</v>
       </c>
       <c r="D73" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E73" t="n">
         <v>18</v>
@@ -3381,17 +4272,33 @@
       </c>
       <c r="H73"/>
       <c r="I73"/>
-      <c r="J73"/>
-      <c r="K73"/>
-      <c r="L73"/>
-      <c r="M73"/>
-      <c r="N73"/>
+      <c r="J73" t="n">
+        <v>18</v>
+      </c>
+      <c r="K73" t="s">
+        <v>24</v>
+      </c>
+      <c r="L73" t="s">
+        <v>27</v>
+      </c>
+      <c r="M73" t="n">
+        <v>37</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2</v>
+      </c>
       <c r="O73"/>
       <c r="P73"/>
       <c r="Q73"/>
-      <c r="R73"/>
-      <c r="S73"/>
-      <c r="T73"/>
+      <c r="R73" t="n">
+        <v>2272.5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U73" t="n">
         <v>56.3</v>
       </c>
@@ -3407,7 +4314,7 @@
         <v>2021</v>
       </c>
       <c r="D74" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E74" t="n">
         <v>18</v>
@@ -3421,15 +4328,25 @@
       <c r="H74"/>
       <c r="I74"/>
       <c r="J74"/>
-      <c r="K74"/>
-      <c r="L74"/>
-      <c r="M74"/>
+      <c r="K74" t="s">
+        <v>24</v>
+      </c>
+      <c r="L74" t="s">
+        <v>27</v>
+      </c>
+      <c r="M74" t="n">
+        <v>32</v>
+      </c>
       <c r="N74"/>
       <c r="O74"/>
       <c r="P74"/>
       <c r="Q74"/>
-      <c r="R74"/>
-      <c r="S74"/>
+      <c r="R74" t="n">
+        <v>1904.8</v>
+      </c>
+      <c r="S74" t="n">
+        <v>15</v>
+      </c>
       <c r="T74"/>
       <c r="U74" t="n">
         <v>55.8</v>
@@ -3446,7 +4363,7 @@
         <v>2021</v>
       </c>
       <c r="D75" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E75" t="n">
         <v>18</v>
@@ -3460,14 +4377,20 @@
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75"/>
-      <c r="K75"/>
-      <c r="L75"/>
+      <c r="K75" t="s">
+        <v>24</v>
+      </c>
+      <c r="L75" t="s">
+        <v>27</v>
+      </c>
       <c r="M75"/>
       <c r="N75"/>
       <c r="O75"/>
       <c r="P75"/>
       <c r="Q75"/>
-      <c r="R75"/>
+      <c r="R75" t="n">
+        <v>1671.1</v>
+      </c>
       <c r="S75"/>
       <c r="T75"/>
       <c r="U75" t="n">
@@ -3485,7 +4408,7 @@
         <v>2021</v>
       </c>
       <c r="D76" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E76" t="n">
         <v>19</v>
@@ -3498,17 +4421,33 @@
       </c>
       <c r="H76"/>
       <c r="I76"/>
-      <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
-      <c r="M76"/>
-      <c r="N76"/>
+      <c r="J76" t="n">
+        <v>17</v>
+      </c>
+      <c r="K76" t="s">
+        <v>24</v>
+      </c>
+      <c r="L76" t="s">
+        <v>27</v>
+      </c>
+      <c r="M76" t="n">
+        <v>39</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2</v>
+      </c>
       <c r="O76"/>
       <c r="P76"/>
       <c r="Q76"/>
-      <c r="R76"/>
-      <c r="S76"/>
-      <c r="T76"/>
+      <c r="R76" t="n">
+        <v>2770.8</v>
+      </c>
+      <c r="S76" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U76" t="n">
         <v>55.9</v>
       </c>
@@ -3524,7 +4463,7 @@
         <v>2021</v>
       </c>
       <c r="D77" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E77" t="n">
         <v>19</v>
@@ -3537,17 +4476,33 @@
       </c>
       <c r="H77"/>
       <c r="I77"/>
-      <c r="J77"/>
-      <c r="K77"/>
-      <c r="L77"/>
-      <c r="M77"/>
-      <c r="N77"/>
+      <c r="J77" t="n">
+        <v>18</v>
+      </c>
+      <c r="K77" t="s">
+        <v>24</v>
+      </c>
+      <c r="L77" t="s">
+        <v>27</v>
+      </c>
+      <c r="M77" t="n">
+        <v>38</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O77"/>
       <c r="P77"/>
       <c r="Q77"/>
-      <c r="R77"/>
-      <c r="S77"/>
-      <c r="T77"/>
+      <c r="R77" t="n">
+        <v>2264.1</v>
+      </c>
+      <c r="S77" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U77" t="n">
         <v>55.3</v>
       </c>
@@ -3563,7 +4518,7 @@
         <v>2021</v>
       </c>
       <c r="D78" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E78" t="n">
         <v>19</v>
@@ -3577,15 +4532,25 @@
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78"/>
-      <c r="K78"/>
-      <c r="L78"/>
-      <c r="M78"/>
+      <c r="K78" t="s">
+        <v>24</v>
+      </c>
+      <c r="L78" t="s">
+        <v>27</v>
+      </c>
+      <c r="M78" t="n">
+        <v>38</v>
+      </c>
       <c r="N78"/>
       <c r="O78"/>
       <c r="P78"/>
       <c r="Q78"/>
-      <c r="R78"/>
-      <c r="S78"/>
+      <c r="R78" t="n">
+        <v>1758.5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>13.3</v>
+      </c>
       <c r="T78"/>
       <c r="U78" t="n">
         <v>56.2</v>
@@ -3602,7 +4567,7 @@
         <v>2021</v>
       </c>
       <c r="D79" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E79" t="n">
         <v>19</v>
@@ -3616,14 +4581,20 @@
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79"/>
-      <c r="K79"/>
-      <c r="L79"/>
+      <c r="K79" t="s">
+        <v>24</v>
+      </c>
+      <c r="L79" t="s">
+        <v>27</v>
+      </c>
       <c r="M79"/>
       <c r="N79"/>
       <c r="O79"/>
       <c r="P79"/>
       <c r="Q79"/>
-      <c r="R79"/>
+      <c r="R79" t="n">
+        <v>1638.9</v>
+      </c>
       <c r="S79"/>
       <c r="T79"/>
       <c r="U79" t="n">
@@ -3641,7 +4612,7 @@
         <v>2021</v>
       </c>
       <c r="D80" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E80" t="n">
         <v>20</v>
@@ -3654,17 +4625,33 @@
       </c>
       <c r="H80"/>
       <c r="I80"/>
-      <c r="J80"/>
-      <c r="K80"/>
-      <c r="L80"/>
-      <c r="M80"/>
-      <c r="N80"/>
+      <c r="J80" t="n">
+        <v>18</v>
+      </c>
+      <c r="K80" t="s">
+        <v>24</v>
+      </c>
+      <c r="L80" t="s">
+        <v>27</v>
+      </c>
+      <c r="M80" t="n">
+        <v>39</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
       <c r="O80"/>
       <c r="P80"/>
       <c r="Q80"/>
-      <c r="R80"/>
-      <c r="S80"/>
-      <c r="T80"/>
+      <c r="R80" t="n">
+        <v>2327.5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U80" t="n">
         <v>55.7</v>
       </c>
@@ -3680,7 +4667,7 @@
         <v>2021</v>
       </c>
       <c r="D81" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E81" t="n">
         <v>20</v>
@@ -3693,17 +4680,33 @@
       </c>
       <c r="H81"/>
       <c r="I81"/>
-      <c r="J81"/>
-      <c r="K81"/>
-      <c r="L81"/>
-      <c r="M81"/>
-      <c r="N81"/>
+      <c r="J81" t="n">
+        <v>17</v>
+      </c>
+      <c r="K81" t="s">
+        <v>24</v>
+      </c>
+      <c r="L81" t="s">
+        <v>27</v>
+      </c>
+      <c r="M81" t="n">
+        <v>39</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
-      <c r="R81"/>
-      <c r="S81"/>
-      <c r="T81"/>
+      <c r="R81" t="n">
+        <v>2179.4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U81" t="n">
         <v>55.7</v>
       </c>
@@ -3719,7 +4722,7 @@
         <v>2021</v>
       </c>
       <c r="D82" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E82" t="n">
         <v>20</v>
@@ -3733,15 +4736,25 @@
       <c r="H82"/>
       <c r="I82"/>
       <c r="J82"/>
-      <c r="K82"/>
-      <c r="L82"/>
-      <c r="M82"/>
+      <c r="K82" t="s">
+        <v>24</v>
+      </c>
+      <c r="L82" t="s">
+        <v>27</v>
+      </c>
+      <c r="M82" t="n">
+        <v>39</v>
+      </c>
       <c r="N82"/>
       <c r="O82"/>
       <c r="P82"/>
       <c r="Q82"/>
-      <c r="R82"/>
-      <c r="S82"/>
+      <c r="R82" t="n">
+        <v>2073.6</v>
+      </c>
+      <c r="S82" t="n">
+        <v>14.2</v>
+      </c>
       <c r="T82"/>
       <c r="U82" t="n">
         <v>56.1</v>
@@ -3758,7 +4771,7 @@
         <v>2021</v>
       </c>
       <c r="D83" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E83" t="n">
         <v>20</v>
@@ -3772,14 +4785,20 @@
       <c r="H83"/>
       <c r="I83"/>
       <c r="J83"/>
-      <c r="K83"/>
-      <c r="L83"/>
+      <c r="K83" t="s">
+        <v>24</v>
+      </c>
+      <c r="L83" t="s">
+        <v>27</v>
+      </c>
       <c r="M83"/>
       <c r="N83"/>
       <c r="O83"/>
       <c r="P83"/>
       <c r="Q83"/>
-      <c r="R83"/>
+      <c r="R83" t="n">
+        <v>1760.6</v>
+      </c>
       <c r="S83"/>
       <c r="T83"/>
       <c r="U83" t="n">
@@ -3797,7 +4816,7 @@
         <v>2021</v>
       </c>
       <c r="D84" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E84" t="n">
         <v>21</v>
@@ -3809,18 +4828,36 @@
         <v>13</v>
       </c>
       <c r="H84"/>
-      <c r="I84"/>
-      <c r="J84"/>
-      <c r="K84"/>
-      <c r="L84"/>
-      <c r="M84"/>
-      <c r="N84"/>
+      <c r="I84" t="s">
+        <v>42</v>
+      </c>
+      <c r="J84" t="n">
+        <v>17</v>
+      </c>
+      <c r="K84" t="s">
+        <v>43</v>
+      </c>
+      <c r="L84" t="s">
+        <v>27</v>
+      </c>
+      <c r="M84" t="n">
+        <v>40</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
-      <c r="R84"/>
-      <c r="S84"/>
-      <c r="T84"/>
+      <c r="R84" t="n">
+        <v>2832.9</v>
+      </c>
+      <c r="S84" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U84" t="n">
         <v>54.8</v>
       </c>
@@ -3836,7 +4873,7 @@
         <v>2021</v>
       </c>
       <c r="D85" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E85" t="n">
         <v>21</v>
@@ -3849,17 +4886,33 @@
       </c>
       <c r="H85"/>
       <c r="I85"/>
-      <c r="J85"/>
-      <c r="K85"/>
-      <c r="L85"/>
-      <c r="M85"/>
-      <c r="N85"/>
+      <c r="J85" t="n">
+        <v>17</v>
+      </c>
+      <c r="K85" t="s">
+        <v>35</v>
+      </c>
+      <c r="L85" t="s">
+        <v>27</v>
+      </c>
+      <c r="M85" t="n">
+        <v>37</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
-      <c r="R85"/>
-      <c r="S85"/>
-      <c r="T85"/>
+      <c r="R85" t="n">
+        <v>2431.2</v>
+      </c>
+      <c r="S85" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U85" t="n">
         <v>54.5</v>
       </c>
@@ -3875,7 +4928,7 @@
         <v>2021</v>
       </c>
       <c r="D86" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E86" t="n">
         <v>21</v>
@@ -3889,15 +4942,25 @@
       <c r="H86"/>
       <c r="I86"/>
       <c r="J86"/>
-      <c r="K86"/>
-      <c r="L86"/>
-      <c r="M86"/>
+      <c r="K86" t="s">
+        <v>35</v>
+      </c>
+      <c r="L86" t="s">
+        <v>27</v>
+      </c>
+      <c r="M86" t="n">
+        <v>31</v>
+      </c>
       <c r="N86"/>
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
-      <c r="R86"/>
-      <c r="S86"/>
+      <c r="R86" t="n">
+        <v>2042.8</v>
+      </c>
+      <c r="S86" t="n">
+        <v>14.7</v>
+      </c>
       <c r="T86"/>
       <c r="U86" t="n">
         <v>54.3</v>
@@ -3914,7 +4977,7 @@
         <v>2021</v>
       </c>
       <c r="D87" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E87" t="n">
         <v>21</v>
@@ -3928,14 +4991,20 @@
       <c r="H87"/>
       <c r="I87"/>
       <c r="J87"/>
-      <c r="K87"/>
-      <c r="L87"/>
+      <c r="K87" t="s">
+        <v>35</v>
+      </c>
+      <c r="L87" t="s">
+        <v>27</v>
+      </c>
       <c r="M87"/>
       <c r="N87"/>
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
-      <c r="R87"/>
+      <c r="R87" t="n">
+        <v>2066.3</v>
+      </c>
       <c r="S87"/>
       <c r="T87"/>
       <c r="U87" t="n">
@@ -3953,7 +5022,7 @@
         <v>2021</v>
       </c>
       <c r="D88" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E88" t="n">
         <v>22</v>
@@ -3966,17 +5035,33 @@
       </c>
       <c r="H88"/>
       <c r="I88"/>
-      <c r="J88"/>
-      <c r="K88"/>
-      <c r="L88"/>
-      <c r="M88"/>
-      <c r="N88"/>
+      <c r="J88" t="n">
+        <v>18</v>
+      </c>
+      <c r="K88" t="s">
+        <v>24</v>
+      </c>
+      <c r="L88" t="s">
+        <v>27</v>
+      </c>
+      <c r="M88" t="n">
+        <v>38</v>
+      </c>
+      <c r="N88" t="n">
+        <v>2</v>
+      </c>
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
-      <c r="R88"/>
-      <c r="S88"/>
-      <c r="T88"/>
+      <c r="R88" t="n">
+        <v>2848.9</v>
+      </c>
+      <c r="S88" t="n">
+        <v>16</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U88" t="n">
         <v>55.8</v>
       </c>
@@ -3992,7 +5077,7 @@
         <v>2021</v>
       </c>
       <c r="D89" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E89" t="n">
         <v>22</v>
@@ -4005,17 +5090,33 @@
       </c>
       <c r="H89"/>
       <c r="I89"/>
-      <c r="J89"/>
-      <c r="K89"/>
-      <c r="L89"/>
-      <c r="M89"/>
-      <c r="N89"/>
+      <c r="J89" t="n">
+        <v>18</v>
+      </c>
+      <c r="K89" t="s">
+        <v>24</v>
+      </c>
+      <c r="L89" t="s">
+        <v>27</v>
+      </c>
+      <c r="M89" t="n">
+        <v>38</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
-      <c r="R89"/>
-      <c r="S89"/>
-      <c r="T89"/>
+      <c r="R89" t="n">
+        <v>2536.2</v>
+      </c>
+      <c r="S89" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U89" t="n">
         <v>55.3</v>
       </c>
@@ -4031,7 +5132,7 @@
         <v>2021</v>
       </c>
       <c r="D90" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E90" t="n">
         <v>22</v>
@@ -4045,15 +5146,25 @@
       <c r="H90"/>
       <c r="I90"/>
       <c r="J90"/>
-      <c r="K90"/>
-      <c r="L90"/>
-      <c r="M90"/>
+      <c r="K90" t="s">
+        <v>24</v>
+      </c>
+      <c r="L90" t="s">
+        <v>27</v>
+      </c>
+      <c r="M90" t="n">
+        <v>40</v>
+      </c>
       <c r="N90"/>
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
-      <c r="R90"/>
-      <c r="S90"/>
+      <c r="R90" t="n">
+        <v>2375.5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>14.6</v>
+      </c>
       <c r="T90"/>
       <c r="U90" t="n">
         <v>55.8</v>
@@ -4070,7 +5181,7 @@
         <v>2021</v>
       </c>
       <c r="D91" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E91" t="n">
         <v>22</v>
@@ -4084,15 +5195,25 @@
       <c r="H91"/>
       <c r="I91"/>
       <c r="J91"/>
-      <c r="K91"/>
-      <c r="L91"/>
-      <c r="M91"/>
+      <c r="K91" t="s">
+        <v>24</v>
+      </c>
+      <c r="L91" t="s">
+        <v>27</v>
+      </c>
+      <c r="M91" t="n">
+        <v>40</v>
+      </c>
       <c r="N91"/>
       <c r="O91"/>
       <c r="P91"/>
       <c r="Q91"/>
-      <c r="R91"/>
-      <c r="S91"/>
+      <c r="R91" t="n">
+        <v>2375.5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>14.6</v>
+      </c>
       <c r="T91"/>
       <c r="U91" t="n">
         <v>55.4</v>
@@ -4109,7 +5230,7 @@
         <v>2021</v>
       </c>
       <c r="D92" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E92" t="n">
         <v>22</v>
@@ -4123,14 +5244,20 @@
       <c r="H92"/>
       <c r="I92"/>
       <c r="J92"/>
-      <c r="K92"/>
-      <c r="L92"/>
+      <c r="K92" t="s">
+        <v>24</v>
+      </c>
+      <c r="L92" t="s">
+        <v>27</v>
+      </c>
       <c r="M92"/>
       <c r="N92"/>
       <c r="O92"/>
       <c r="P92"/>
       <c r="Q92"/>
-      <c r="R92"/>
+      <c r="R92" t="n">
+        <v>1947.5</v>
+      </c>
       <c r="S92"/>
       <c r="T92"/>
       <c r="U92" t="n">
@@ -4148,7 +5275,7 @@
         <v>2021</v>
       </c>
       <c r="D93" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E93" t="n">
         <v>23</v>
@@ -4161,17 +5288,33 @@
       </c>
       <c r="H93"/>
       <c r="I93"/>
-      <c r="J93"/>
-      <c r="K93"/>
-      <c r="L93"/>
-      <c r="M93"/>
-      <c r="N93"/>
+      <c r="J93" t="n">
+        <v>17</v>
+      </c>
+      <c r="K93" t="s">
+        <v>24</v>
+      </c>
+      <c r="L93" t="s">
+        <v>27</v>
+      </c>
+      <c r="M93" t="n">
+        <v>40</v>
+      </c>
+      <c r="N93" t="n">
+        <v>2</v>
+      </c>
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
-      <c r="R93"/>
-      <c r="S93"/>
-      <c r="T93"/>
+      <c r="R93" t="n">
+        <v>2885.8</v>
+      </c>
+      <c r="S93" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U93" t="n">
         <v>54.7</v>
       </c>
@@ -4187,7 +5330,7 @@
         <v>2021</v>
       </c>
       <c r="D94" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E94" t="n">
         <v>23</v>
@@ -4200,17 +5343,33 @@
       </c>
       <c r="H94"/>
       <c r="I94"/>
-      <c r="J94"/>
-      <c r="K94"/>
-      <c r="L94"/>
-      <c r="M94"/>
-      <c r="N94"/>
+      <c r="J94" t="n">
+        <v>17</v>
+      </c>
+      <c r="K94" t="s">
+        <v>24</v>
+      </c>
+      <c r="L94" t="s">
+        <v>27</v>
+      </c>
+      <c r="M94" t="n">
+        <v>39</v>
+      </c>
+      <c r="N94" t="n">
+        <v>2</v>
+      </c>
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94"/>
-      <c r="R94"/>
-      <c r="S94"/>
-      <c r="T94"/>
+      <c r="R94" t="n">
+        <v>2341.9</v>
+      </c>
+      <c r="S94" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U94" t="n">
         <v>54.6</v>
       </c>
@@ -4226,7 +5385,7 @@
         <v>2021</v>
       </c>
       <c r="D95" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E95" t="n">
         <v>23</v>
@@ -4240,15 +5399,25 @@
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95"/>
-      <c r="K95"/>
-      <c r="L95"/>
-      <c r="M95"/>
+      <c r="K95" t="s">
+        <v>24</v>
+      </c>
+      <c r="L95" t="s">
+        <v>27</v>
+      </c>
+      <c r="M95" t="n">
+        <v>38</v>
+      </c>
       <c r="N95"/>
       <c r="O95"/>
       <c r="P95"/>
       <c r="Q95"/>
-      <c r="R95"/>
-      <c r="S95"/>
+      <c r="R95" t="n">
+        <v>2434.4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>12.9</v>
+      </c>
       <c r="T95"/>
       <c r="U95" t="n">
         <v>55.1</v>
@@ -4265,7 +5434,7 @@
         <v>2021</v>
       </c>
       <c r="D96" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E96" t="n">
         <v>23</v>
@@ -4279,14 +5448,20 @@
       <c r="H96"/>
       <c r="I96"/>
       <c r="J96"/>
-      <c r="K96"/>
-      <c r="L96"/>
+      <c r="K96" t="s">
+        <v>24</v>
+      </c>
+      <c r="L96" t="s">
+        <v>27</v>
+      </c>
       <c r="M96"/>
       <c r="N96"/>
       <c r="O96"/>
       <c r="P96"/>
       <c r="Q96"/>
-      <c r="R96"/>
+      <c r="R96" t="n">
+        <v>2106.7</v>
+      </c>
       <c r="S96"/>
       <c r="T96"/>
       <c r="U96" t="n">
@@ -4304,7 +5479,7 @@
         <v>2021</v>
       </c>
       <c r="D97" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E97" t="n">
         <v>24</v>
@@ -4317,17 +5492,33 @@
       </c>
       <c r="H97"/>
       <c r="I97"/>
-      <c r="J97"/>
-      <c r="K97"/>
-      <c r="L97"/>
-      <c r="M97"/>
-      <c r="N97"/>
+      <c r="J97" t="n">
+        <v>18</v>
+      </c>
+      <c r="K97" t="s">
+        <v>24</v>
+      </c>
+      <c r="L97" t="s">
+        <v>27</v>
+      </c>
+      <c r="M97" t="n">
+        <v>40</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O97"/>
       <c r="P97"/>
       <c r="Q97"/>
-      <c r="R97"/>
-      <c r="S97"/>
-      <c r="T97"/>
+      <c r="R97" t="n">
+        <v>2829.6</v>
+      </c>
+      <c r="S97" t="n">
+        <v>15</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U97" t="n">
         <v>55.3</v>
       </c>
@@ -4343,7 +5534,7 @@
         <v>2021</v>
       </c>
       <c r="D98" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E98" t="n">
         <v>24</v>
@@ -4356,17 +5547,33 @@
       </c>
       <c r="H98"/>
       <c r="I98"/>
-      <c r="J98"/>
-      <c r="K98"/>
-      <c r="L98"/>
-      <c r="M98"/>
-      <c r="N98"/>
+      <c r="J98" t="n">
+        <v>18</v>
+      </c>
+      <c r="K98" t="s">
+        <v>24</v>
+      </c>
+      <c r="L98" t="s">
+        <v>27</v>
+      </c>
+      <c r="M98" t="n">
+        <v>35</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O98"/>
       <c r="P98"/>
       <c r="Q98"/>
-      <c r="R98"/>
-      <c r="S98"/>
-      <c r="T98"/>
+      <c r="R98" t="n">
+        <v>955.7</v>
+      </c>
+      <c r="S98" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U98" t="n">
         <v>56.4</v>
       </c>
@@ -4382,7 +5589,7 @@
         <v>2021</v>
       </c>
       <c r="D99" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E99" t="n">
         <v>24</v>
@@ -4396,15 +5603,25 @@
       <c r="H99"/>
       <c r="I99"/>
       <c r="J99"/>
-      <c r="K99"/>
-      <c r="L99"/>
-      <c r="M99"/>
+      <c r="K99" t="s">
+        <v>24</v>
+      </c>
+      <c r="L99" t="s">
+        <v>27</v>
+      </c>
+      <c r="M99" t="n">
+        <v>37</v>
+      </c>
       <c r="N99"/>
       <c r="O99"/>
       <c r="P99"/>
       <c r="Q99"/>
-      <c r="R99"/>
-      <c r="S99"/>
+      <c r="R99" t="n">
+        <v>1741.2</v>
+      </c>
+      <c r="S99" t="n">
+        <v>12.7</v>
+      </c>
       <c r="T99"/>
       <c r="U99" t="n">
         <v>56.5</v>
@@ -4421,7 +5638,7 @@
         <v>2021</v>
       </c>
       <c r="D100" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E100" t="n">
         <v>24</v>
@@ -4435,14 +5652,20 @@
       <c r="H100"/>
       <c r="I100"/>
       <c r="J100"/>
-      <c r="K100"/>
-      <c r="L100"/>
+      <c r="K100" t="s">
+        <v>24</v>
+      </c>
+      <c r="L100" t="s">
+        <v>27</v>
+      </c>
       <c r="M100"/>
       <c r="N100"/>
       <c r="O100"/>
       <c r="P100"/>
       <c r="Q100"/>
-      <c r="R100"/>
+      <c r="R100" t="n">
+        <v>1936.1</v>
+      </c>
       <c r="S100"/>
       <c r="T100"/>
       <c r="U100" t="n">
@@ -4460,7 +5683,7 @@
         <v>2021</v>
       </c>
       <c r="D101" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E101" t="n">
         <v>25</v>
@@ -4473,17 +5696,33 @@
       </c>
       <c r="H101"/>
       <c r="I101"/>
-      <c r="J101"/>
-      <c r="K101"/>
-      <c r="L101"/>
-      <c r="M101"/>
-      <c r="N101"/>
+      <c r="J101" t="n">
+        <v>18</v>
+      </c>
+      <c r="K101" t="s">
+        <v>24</v>
+      </c>
+      <c r="L101" t="s">
+        <v>27</v>
+      </c>
+      <c r="M101" t="n">
+        <v>39</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O101"/>
       <c r="P101"/>
       <c r="Q101"/>
-      <c r="R101"/>
-      <c r="S101"/>
-      <c r="T101"/>
+      <c r="R101" t="n">
+        <v>2976.1</v>
+      </c>
+      <c r="S101" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="T101" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U101" t="n">
         <v>54.6</v>
       </c>
@@ -4499,7 +5738,7 @@
         <v>2021</v>
       </c>
       <c r="D102" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E102" t="n">
         <v>25</v>
@@ -4512,17 +5751,33 @@
       </c>
       <c r="H102"/>
       <c r="I102"/>
-      <c r="J102"/>
-      <c r="K102"/>
-      <c r="L102"/>
-      <c r="M102"/>
-      <c r="N102"/>
+      <c r="J102" t="n">
+        <v>17</v>
+      </c>
+      <c r="K102" t="s">
+        <v>24</v>
+      </c>
+      <c r="L102" t="s">
+        <v>27</v>
+      </c>
+      <c r="M102" t="n">
+        <v>36</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O102"/>
       <c r="P102"/>
       <c r="Q102"/>
-      <c r="R102"/>
-      <c r="S102"/>
-      <c r="T102"/>
+      <c r="R102" t="n">
+        <v>2334.7</v>
+      </c>
+      <c r="S102" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U102" t="n">
         <v>55.5</v>
       </c>
@@ -4538,7 +5793,7 @@
         <v>2021</v>
       </c>
       <c r="D103" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E103" t="n">
         <v>25</v>
@@ -4552,15 +5807,25 @@
       <c r="H103"/>
       <c r="I103"/>
       <c r="J103"/>
-      <c r="K103"/>
-      <c r="L103"/>
-      <c r="M103"/>
+      <c r="K103" t="s">
+        <v>24</v>
+      </c>
+      <c r="L103" t="s">
+        <v>27</v>
+      </c>
+      <c r="M103" t="n">
+        <v>34</v>
+      </c>
       <c r="N103"/>
       <c r="O103"/>
       <c r="P103"/>
       <c r="Q103"/>
-      <c r="R103"/>
-      <c r="S103"/>
+      <c r="R103" t="n">
+        <v>1822.9</v>
+      </c>
+      <c r="S103" t="n">
+        <v>16.4</v>
+      </c>
       <c r="T103"/>
       <c r="U103" t="n">
         <v>55</v>
@@ -4577,7 +5842,7 @@
         <v>2021</v>
       </c>
       <c r="D104" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E104" t="n">
         <v>25</v>
@@ -4591,14 +5856,20 @@
       <c r="H104"/>
       <c r="I104"/>
       <c r="J104"/>
-      <c r="K104"/>
-      <c r="L104"/>
+      <c r="K104" t="s">
+        <v>24</v>
+      </c>
+      <c r="L104" t="s">
+        <v>27</v>
+      </c>
       <c r="M104"/>
       <c r="N104"/>
       <c r="O104"/>
       <c r="P104"/>
       <c r="Q104"/>
-      <c r="R104"/>
+      <c r="R104" t="n">
+        <v>1831.6</v>
+      </c>
       <c r="S104"/>
       <c r="T104"/>
       <c r="U104" t="n">
@@ -4616,7 +5887,7 @@
         <v>2021</v>
       </c>
       <c r="D105" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E105" t="n">
         <v>26</v>
@@ -4629,17 +5900,33 @@
       </c>
       <c r="H105"/>
       <c r="I105"/>
-      <c r="J105"/>
-      <c r="K105"/>
-      <c r="L105"/>
-      <c r="M105"/>
-      <c r="N105"/>
+      <c r="J105" t="n">
+        <v>19</v>
+      </c>
+      <c r="K105" t="s">
+        <v>24</v>
+      </c>
+      <c r="L105" t="s">
+        <v>27</v>
+      </c>
+      <c r="M105" t="n">
+        <v>39</v>
+      </c>
+      <c r="N105" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O105"/>
       <c r="P105"/>
       <c r="Q105"/>
-      <c r="R105"/>
-      <c r="S105"/>
-      <c r="T105"/>
+      <c r="R105" t="n">
+        <v>2779.9</v>
+      </c>
+      <c r="S105" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U105" t="n">
         <v>56.3</v>
       </c>
@@ -4655,7 +5942,7 @@
         <v>2021</v>
       </c>
       <c r="D106" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E106" t="n">
         <v>26</v>
@@ -4668,17 +5955,33 @@
       </c>
       <c r="H106"/>
       <c r="I106"/>
-      <c r="J106"/>
-      <c r="K106"/>
-      <c r="L106"/>
-      <c r="M106"/>
-      <c r="N106"/>
+      <c r="J106" t="n">
+        <v>18</v>
+      </c>
+      <c r="K106" t="s">
+        <v>24</v>
+      </c>
+      <c r="L106" t="s">
+        <v>27</v>
+      </c>
+      <c r="M106" t="n">
+        <v>37</v>
+      </c>
+      <c r="N106" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O106"/>
       <c r="P106"/>
       <c r="Q106"/>
-      <c r="R106"/>
-      <c r="S106"/>
-      <c r="T106"/>
+      <c r="R106" t="n">
+        <v>2624.3</v>
+      </c>
+      <c r="S106" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U106" t="n">
         <v>55.5</v>
       </c>
@@ -4694,7 +5997,7 @@
         <v>2021</v>
       </c>
       <c r="D107" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E107" t="n">
         <v>26</v>
@@ -4708,15 +6011,25 @@
       <c r="H107"/>
       <c r="I107"/>
       <c r="J107"/>
-      <c r="K107"/>
-      <c r="L107"/>
-      <c r="M107"/>
+      <c r="K107" t="s">
+        <v>24</v>
+      </c>
+      <c r="L107" t="s">
+        <v>27</v>
+      </c>
+      <c r="M107" t="n">
+        <v>36</v>
+      </c>
       <c r="N107"/>
       <c r="O107"/>
       <c r="P107"/>
       <c r="Q107"/>
-      <c r="R107"/>
-      <c r="S107"/>
+      <c r="R107" t="n">
+        <v>1774</v>
+      </c>
+      <c r="S107" t="n">
+        <v>15.9</v>
+      </c>
       <c r="T107"/>
       <c r="U107" t="n">
         <v>55.7</v>
@@ -4733,7 +6046,7 @@
         <v>2021</v>
       </c>
       <c r="D108" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E108" t="n">
         <v>26</v>
@@ -4747,14 +6060,20 @@
       <c r="H108"/>
       <c r="I108"/>
       <c r="J108"/>
-      <c r="K108"/>
-      <c r="L108"/>
+      <c r="K108" t="s">
+        <v>24</v>
+      </c>
+      <c r="L108" t="s">
+        <v>27</v>
+      </c>
       <c r="M108"/>
       <c r="N108"/>
       <c r="O108"/>
       <c r="P108"/>
       <c r="Q108"/>
-      <c r="R108"/>
+      <c r="R108" t="n">
+        <v>1611.7</v>
+      </c>
       <c r="S108"/>
       <c r="T108"/>
       <c r="U108" t="n">
@@ -4772,7 +6091,7 @@
         <v>2021</v>
       </c>
       <c r="D109" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E109" t="n">
         <v>27</v>
@@ -4785,17 +6104,33 @@
       </c>
       <c r="H109"/>
       <c r="I109"/>
-      <c r="J109"/>
-      <c r="K109"/>
-      <c r="L109"/>
-      <c r="M109"/>
-      <c r="N109"/>
+      <c r="J109" t="n">
+        <v>19</v>
+      </c>
+      <c r="K109" t="s">
+        <v>24</v>
+      </c>
+      <c r="L109" t="s">
+        <v>32</v>
+      </c>
+      <c r="M109" t="n">
+        <v>38</v>
+      </c>
+      <c r="N109" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O109"/>
       <c r="P109"/>
       <c r="Q109"/>
-      <c r="R109"/>
-      <c r="S109"/>
-      <c r="T109"/>
+      <c r="R109" t="n">
+        <v>2778.3</v>
+      </c>
+      <c r="S109" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U109" t="n">
         <v>55.4</v>
       </c>
@@ -4811,7 +6146,7 @@
         <v>2021</v>
       </c>
       <c r="D110" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E110" t="n">
         <v>27</v>
@@ -4824,17 +6159,33 @@
       </c>
       <c r="H110"/>
       <c r="I110"/>
-      <c r="J110"/>
-      <c r="K110"/>
-      <c r="L110"/>
-      <c r="M110"/>
-      <c r="N110"/>
+      <c r="J110" t="n">
+        <v>19</v>
+      </c>
+      <c r="K110" t="s">
+        <v>24</v>
+      </c>
+      <c r="L110" t="s">
+        <v>32</v>
+      </c>
+      <c r="M110" t="n">
+        <v>35</v>
+      </c>
+      <c r="N110" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O110"/>
       <c r="P110"/>
       <c r="Q110"/>
-      <c r="R110"/>
-      <c r="S110"/>
-      <c r="T110"/>
+      <c r="R110" t="n">
+        <v>2271</v>
+      </c>
+      <c r="S110" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U110" t="n">
         <v>55.4</v>
       </c>
@@ -4850,7 +6201,7 @@
         <v>2021</v>
       </c>
       <c r="D111" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E111" t="n">
         <v>27</v>
@@ -4864,15 +6215,25 @@
       <c r="H111"/>
       <c r="I111"/>
       <c r="J111"/>
-      <c r="K111"/>
-      <c r="L111"/>
-      <c r="M111"/>
+      <c r="K111" t="s">
+        <v>24</v>
+      </c>
+      <c r="L111" t="s">
+        <v>27</v>
+      </c>
+      <c r="M111" t="n">
+        <v>32</v>
+      </c>
       <c r="N111"/>
       <c r="O111"/>
       <c r="P111"/>
       <c r="Q111"/>
-      <c r="R111"/>
-      <c r="S111"/>
+      <c r="R111" t="n">
+        <v>1945.8</v>
+      </c>
+      <c r="S111" t="n">
+        <v>13</v>
+      </c>
       <c r="T111"/>
       <c r="U111" t="n">
         <v>55.4</v>
@@ -4889,7 +6250,7 @@
         <v>2021</v>
       </c>
       <c r="D112" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E112" t="n">
         <v>27</v>
@@ -4903,14 +6264,20 @@
       <c r="H112"/>
       <c r="I112"/>
       <c r="J112"/>
-      <c r="K112"/>
-      <c r="L112"/>
+      <c r="K112" t="s">
+        <v>24</v>
+      </c>
+      <c r="L112" t="s">
+        <v>27</v>
+      </c>
       <c r="M112"/>
       <c r="N112"/>
       <c r="O112"/>
       <c r="P112"/>
       <c r="Q112"/>
-      <c r="R112"/>
+      <c r="R112" t="n">
+        <v>1494</v>
+      </c>
       <c r="S112"/>
       <c r="T112"/>
       <c r="U112" t="n">
@@ -4928,7 +6295,7 @@
         <v>2021</v>
       </c>
       <c r="D113" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E113" t="n">
         <v>28</v>
@@ -4941,17 +6308,33 @@
       </c>
       <c r="H113"/>
       <c r="I113"/>
-      <c r="J113"/>
-      <c r="K113"/>
-      <c r="L113"/>
-      <c r="M113"/>
-      <c r="N113"/>
+      <c r="J113" t="n">
+        <v>19</v>
+      </c>
+      <c r="K113" t="s">
+        <v>35</v>
+      </c>
+      <c r="L113" t="s">
+        <v>25</v>
+      </c>
+      <c r="M113" t="n">
+        <v>39</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O113"/>
       <c r="P113"/>
       <c r="Q113"/>
-      <c r="R113"/>
-      <c r="S113"/>
-      <c r="T113"/>
+      <c r="R113" t="n">
+        <v>2734.6</v>
+      </c>
+      <c r="S113" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U113" t="n">
         <v>55.3</v>
       </c>
@@ -4967,7 +6350,7 @@
         <v>2021</v>
       </c>
       <c r="D114" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E114" t="n">
         <v>28</v>
@@ -4980,17 +6363,33 @@
       </c>
       <c r="H114"/>
       <c r="I114"/>
-      <c r="J114"/>
-      <c r="K114"/>
-      <c r="L114"/>
-      <c r="M114"/>
-      <c r="N114"/>
+      <c r="J114" t="n">
+        <v>18</v>
+      </c>
+      <c r="K114" t="s">
+        <v>35</v>
+      </c>
+      <c r="L114" t="s">
+        <v>25</v>
+      </c>
+      <c r="M114" t="n">
+        <v>36</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O114"/>
       <c r="P114"/>
       <c r="Q114"/>
-      <c r="R114"/>
-      <c r="S114"/>
-      <c r="T114"/>
+      <c r="R114" t="n">
+        <v>2328.5</v>
+      </c>
+      <c r="S114" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U114" t="n">
         <v>55</v>
       </c>
@@ -5006,7 +6405,7 @@
         <v>2021</v>
       </c>
       <c r="D115" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E115" t="n">
         <v>28</v>
@@ -5020,15 +6419,25 @@
       <c r="H115"/>
       <c r="I115"/>
       <c r="J115"/>
-      <c r="K115"/>
-      <c r="L115"/>
-      <c r="M115"/>
+      <c r="K115" t="s">
+        <v>35</v>
+      </c>
+      <c r="L115" t="s">
+        <v>25</v>
+      </c>
+      <c r="M115" t="n">
+        <v>37</v>
+      </c>
       <c r="N115"/>
       <c r="O115"/>
       <c r="P115"/>
       <c r="Q115"/>
-      <c r="R115"/>
-      <c r="S115"/>
+      <c r="R115" t="n">
+        <v>2311.6</v>
+      </c>
+      <c r="S115" t="n">
+        <v>13.4</v>
+      </c>
       <c r="T115"/>
       <c r="U115" t="n">
         <v>54.4</v>
@@ -5045,7 +6454,7 @@
         <v>2021</v>
       </c>
       <c r="D116" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E116" t="n">
         <v>28</v>
@@ -5059,14 +6468,20 @@
       <c r="H116"/>
       <c r="I116"/>
       <c r="J116"/>
-      <c r="K116"/>
-      <c r="L116"/>
+      <c r="K116" t="s">
+        <v>35</v>
+      </c>
+      <c r="L116" t="s">
+        <v>25</v>
+      </c>
       <c r="M116"/>
       <c r="N116"/>
       <c r="O116"/>
       <c r="P116"/>
       <c r="Q116"/>
-      <c r="R116"/>
+      <c r="R116" t="n">
+        <v>2365.3</v>
+      </c>
       <c r="S116"/>
       <c r="T116"/>
       <c r="U116" t="n">
@@ -5084,7 +6499,7 @@
         <v>2021</v>
       </c>
       <c r="D117" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E117" t="n">
         <v>29</v>
@@ -5097,17 +6512,33 @@
       </c>
       <c r="H117"/>
       <c r="I117"/>
-      <c r="J117"/>
-      <c r="K117"/>
-      <c r="L117"/>
-      <c r="M117"/>
-      <c r="N117"/>
+      <c r="J117" t="n">
+        <v>12</v>
+      </c>
+      <c r="K117" t="s">
+        <v>24</v>
+      </c>
+      <c r="L117" t="s">
+        <v>25</v>
+      </c>
+      <c r="M117" t="n">
+        <v>32</v>
+      </c>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
       <c r="O117"/>
       <c r="P117"/>
       <c r="Q117"/>
-      <c r="R117"/>
-      <c r="S117"/>
-      <c r="T117"/>
+      <c r="R117" t="n">
+        <v>2327.7</v>
+      </c>
+      <c r="S117" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U117" t="n">
         <v>54.8</v>
       </c>
@@ -5123,7 +6554,7 @@
         <v>2021</v>
       </c>
       <c r="D118" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E118" t="n">
         <v>29</v>
@@ -5136,17 +6567,33 @@
       </c>
       <c r="H118"/>
       <c r="I118"/>
-      <c r="J118"/>
-      <c r="K118"/>
-      <c r="L118"/>
-      <c r="M118"/>
-      <c r="N118"/>
+      <c r="J118" t="n">
+        <v>12</v>
+      </c>
+      <c r="K118" t="s">
+        <v>24</v>
+      </c>
+      <c r="L118" t="s">
+        <v>25</v>
+      </c>
+      <c r="M118" t="n">
+        <v>29</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
       <c r="O118"/>
       <c r="P118"/>
       <c r="Q118"/>
-      <c r="R118"/>
-      <c r="S118"/>
-      <c r="T118"/>
+      <c r="R118" t="n">
+        <v>2121.9</v>
+      </c>
+      <c r="S118" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U118" t="n">
         <v>55</v>
       </c>
@@ -5162,7 +6609,7 @@
         <v>2021</v>
       </c>
       <c r="D119" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E119" t="n">
         <v>29</v>
@@ -5176,15 +6623,25 @@
       <c r="H119"/>
       <c r="I119"/>
       <c r="J119"/>
-      <c r="K119"/>
-      <c r="L119"/>
-      <c r="M119"/>
+      <c r="K119" t="s">
+        <v>24</v>
+      </c>
+      <c r="L119" t="s">
+        <v>25</v>
+      </c>
+      <c r="M119" t="n">
+        <v>30</v>
+      </c>
       <c r="N119"/>
       <c r="O119"/>
       <c r="P119"/>
       <c r="Q119"/>
-      <c r="R119"/>
-      <c r="S119"/>
+      <c r="R119" t="n">
+        <v>1914.7</v>
+      </c>
+      <c r="S119" t="n">
+        <v>11.5</v>
+      </c>
       <c r="T119"/>
       <c r="U119" t="n">
         <v>55.3</v>
@@ -5201,7 +6658,7 @@
         <v>2021</v>
       </c>
       <c r="D120" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E120" t="n">
         <v>29</v>
@@ -5215,14 +6672,20 @@
       <c r="H120"/>
       <c r="I120"/>
       <c r="J120"/>
-      <c r="K120"/>
-      <c r="L120"/>
+      <c r="K120" t="s">
+        <v>24</v>
+      </c>
+      <c r="L120" t="s">
+        <v>25</v>
+      </c>
       <c r="M120"/>
       <c r="N120"/>
       <c r="O120"/>
       <c r="P120"/>
       <c r="Q120"/>
-      <c r="R120"/>
+      <c r="R120" t="n">
+        <v>1713.7</v>
+      </c>
       <c r="S120"/>
       <c r="T120"/>
       <c r="U120" t="n">
@@ -5240,7 +6703,7 @@
         <v>2021</v>
       </c>
       <c r="D121" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E121" t="n">
         <v>30</v>
@@ -5252,18 +6715,36 @@
         <v>30</v>
       </c>
       <c r="H121"/>
-      <c r="I121"/>
-      <c r="J121"/>
-      <c r="K121"/>
-      <c r="L121"/>
-      <c r="M121"/>
-      <c r="N121"/>
+      <c r="I121" t="s">
+        <v>62</v>
+      </c>
+      <c r="J121" t="n">
+        <v>15</v>
+      </c>
+      <c r="K121" t="s">
+        <v>24</v>
+      </c>
+      <c r="L121" t="s">
+        <v>25</v>
+      </c>
+      <c r="M121" t="n">
+        <v>31</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O121"/>
       <c r="P121"/>
       <c r="Q121"/>
-      <c r="R121"/>
-      <c r="S121"/>
-      <c r="T121"/>
+      <c r="R121" t="n">
+        <v>2219.6</v>
+      </c>
+      <c r="S121" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="T121" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U121" t="n">
         <v>55.3</v>
       </c>
@@ -5279,7 +6760,7 @@
         <v>2021</v>
       </c>
       <c r="D122" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E122" t="n">
         <v>30</v>
@@ -5291,18 +6772,36 @@
         <v>45</v>
       </c>
       <c r="H122"/>
-      <c r="I122"/>
-      <c r="J122"/>
-      <c r="K122"/>
-      <c r="L122"/>
-      <c r="M122"/>
-      <c r="N122"/>
+      <c r="I122" t="s">
+        <v>62</v>
+      </c>
+      <c r="J122" t="n">
+        <v>15</v>
+      </c>
+      <c r="K122" t="s">
+        <v>24</v>
+      </c>
+      <c r="L122" t="s">
+        <v>25</v>
+      </c>
+      <c r="M122" t="n">
+        <v>30</v>
+      </c>
+      <c r="N122" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O122"/>
       <c r="P122"/>
       <c r="Q122"/>
-      <c r="R122"/>
-      <c r="S122"/>
-      <c r="T122"/>
+      <c r="R122" t="n">
+        <v>2487.2</v>
+      </c>
+      <c r="S122" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="T122" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U122" t="n">
         <v>54.8</v>
       </c>
@@ -5318,7 +6817,7 @@
         <v>2021</v>
       </c>
       <c r="D123" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E123" t="n">
         <v>30</v>
@@ -5330,17 +6829,29 @@
         <v>69</v>
       </c>
       <c r="H123"/>
-      <c r="I123"/>
+      <c r="I123" t="s">
+        <v>62</v>
+      </c>
       <c r="J123"/>
-      <c r="K123"/>
-      <c r="L123"/>
-      <c r="M123"/>
+      <c r="K123" t="s">
+        <v>24</v>
+      </c>
+      <c r="L123" t="s">
+        <v>25</v>
+      </c>
+      <c r="M123" t="n">
+        <v>30</v>
+      </c>
       <c r="N123"/>
       <c r="O123"/>
       <c r="P123"/>
       <c r="Q123"/>
-      <c r="R123"/>
-      <c r="S123"/>
+      <c r="R123" t="n">
+        <v>2166</v>
+      </c>
+      <c r="S123" t="n">
+        <v>12.1</v>
+      </c>
       <c r="T123"/>
       <c r="U123" t="n">
         <v>55.1</v>
@@ -5357,7 +6868,7 @@
         <v>2021</v>
       </c>
       <c r="D124" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E124" t="n">
         <v>30</v>
@@ -5369,16 +6880,24 @@
         <v>107</v>
       </c>
       <c r="H124"/>
-      <c r="I124"/>
+      <c r="I124" t="s">
+        <v>62</v>
+      </c>
       <c r="J124"/>
-      <c r="K124"/>
-      <c r="L124"/>
+      <c r="K124" t="s">
+        <v>24</v>
+      </c>
+      <c r="L124" t="s">
+        <v>25</v>
+      </c>
       <c r="M124"/>
       <c r="N124"/>
       <c r="O124"/>
       <c r="P124"/>
       <c r="Q124"/>
-      <c r="R124"/>
+      <c r="R124" t="n">
+        <v>1797.2</v>
+      </c>
       <c r="S124"/>
       <c r="T124"/>
       <c r="U124" t="n">
@@ -5390,7 +6909,7 @@
         <v>21</v>
       </c>
       <c r="B125" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C125" t="n">
         <v>2021</v>
@@ -5410,13 +6929,13 @@
       <c r="H125"/>
       <c r="I125"/>
       <c r="J125" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="K125" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L125" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M125" t="n">
         <v>30</v>
@@ -5445,7 +6964,7 @@
         <v>21</v>
       </c>
       <c r="B126" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C126" t="n">
         <v>2021</v>
@@ -5465,13 +6984,13 @@
       <c r="H126"/>
       <c r="I126"/>
       <c r="J126" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="K126" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L126" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M126" t="n">
         <v>31</v>
@@ -5500,7 +7019,7 @@
         <v>21</v>
       </c>
       <c r="B127" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C127" t="n">
         <v>2021</v>
@@ -5521,10 +7040,10 @@
       <c r="I127"/>
       <c r="J127"/>
       <c r="K127" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L127" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M127"/>
       <c r="N127"/>
@@ -5547,7 +7066,7 @@
         <v>21</v>
       </c>
       <c r="B128" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C128" t="n">
         <v>2021</v>
@@ -5568,10 +7087,10 @@
       <c r="I128"/>
       <c r="J128"/>
       <c r="K128" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L128" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M128"/>
       <c r="N128"/>
@@ -5590,13 +7109,13 @@
         <v>21</v>
       </c>
       <c r="B129" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C129" t="n">
         <v>2021</v>
       </c>
       <c r="D129" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E129" t="n">
         <v>2</v>
@@ -5610,13 +7129,13 @@
       <c r="H129"/>
       <c r="I129"/>
       <c r="J129" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="K129" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L129" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M129" t="n">
         <v>35</v>
@@ -5645,13 +7164,13 @@
         <v>21</v>
       </c>
       <c r="B130" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C130" t="n">
         <v>2021</v>
       </c>
       <c r="D130" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E130" t="n">
         <v>2</v>
@@ -5665,13 +7184,13 @@
       <c r="H130"/>
       <c r="I130"/>
       <c r="J130" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="K130" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L130" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M130" t="n">
         <v>35</v>
@@ -5700,13 +7219,13 @@
         <v>21</v>
       </c>
       <c r="B131" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C131" t="n">
         <v>2021</v>
       </c>
       <c r="D131" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E131" t="n">
         <v>2</v>
@@ -5721,10 +7240,10 @@
       <c r="I131"/>
       <c r="J131"/>
       <c r="K131" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L131" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M131"/>
       <c r="N131"/>
@@ -5747,13 +7266,13 @@
         <v>21</v>
       </c>
       <c r="B132" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C132" t="n">
         <v>2021</v>
       </c>
       <c r="D132" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E132" t="n">
         <v>2</v>
@@ -5768,10 +7287,10 @@
       <c r="I132"/>
       <c r="J132"/>
       <c r="K132" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L132" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M132"/>
       <c r="N132"/>
@@ -5790,13 +7309,13 @@
         <v>21</v>
       </c>
       <c r="B133" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C133" t="n">
         <v>2021</v>
       </c>
       <c r="D133" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E133" t="n">
         <v>3</v>
@@ -5810,13 +7329,13 @@
       <c r="H133"/>
       <c r="I133"/>
       <c r="J133" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="K133" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L133" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M133" t="n">
         <v>34</v>
@@ -5845,13 +7364,13 @@
         <v>21</v>
       </c>
       <c r="B134" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C134" t="n">
         <v>2021</v>
       </c>
       <c r="D134" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E134" t="n">
         <v>3</v>
@@ -5865,13 +7384,13 @@
       <c r="H134"/>
       <c r="I134"/>
       <c r="J134" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="K134" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L134" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M134" t="n">
         <v>32</v>
@@ -5900,13 +7419,13 @@
         <v>21</v>
       </c>
       <c r="B135" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C135" t="n">
         <v>2021</v>
       </c>
       <c r="D135" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E135" t="n">
         <v>3</v>
@@ -5921,10 +7440,10 @@
       <c r="I135"/>
       <c r="J135"/>
       <c r="K135" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L135" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M135"/>
       <c r="N135"/>
@@ -5947,13 +7466,13 @@
         <v>21</v>
       </c>
       <c r="B136" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C136" t="n">
         <v>2021</v>
       </c>
       <c r="D136" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E136" t="n">
         <v>3</v>
@@ -5968,10 +7487,10 @@
       <c r="I136"/>
       <c r="J136"/>
       <c r="K136" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L136" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M136"/>
       <c r="N136"/>
@@ -5990,13 +7509,13 @@
         <v>21</v>
       </c>
       <c r="B137" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C137" t="n">
         <v>2021</v>
       </c>
       <c r="D137" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -6010,13 +7529,13 @@
       <c r="H137"/>
       <c r="I137"/>
       <c r="J137" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K137" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L137" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M137" t="n">
         <v>35</v>
@@ -6045,13 +7564,13 @@
         <v>21</v>
       </c>
       <c r="B138" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C138" t="n">
         <v>2021</v>
       </c>
       <c r="D138" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -6065,13 +7584,13 @@
       <c r="H138"/>
       <c r="I138"/>
       <c r="J138" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="K138" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L138" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M138" t="n">
         <v>35</v>
@@ -6106,13 +7625,13 @@
         <v>21</v>
       </c>
       <c r="B139" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C139" t="n">
         <v>2021</v>
       </c>
       <c r="D139" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -6127,10 +7646,10 @@
       <c r="I139"/>
       <c r="J139"/>
       <c r="K139" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L139" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M139"/>
       <c r="N139"/>
@@ -6159,13 +7678,13 @@
         <v>21</v>
       </c>
       <c r="B140" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C140" t="n">
         <v>2021</v>
       </c>
       <c r="D140" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -6180,10 +7699,10 @@
       <c r="I140"/>
       <c r="J140"/>
       <c r="K140" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L140" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M140"/>
       <c r="N140"/>
@@ -6202,13 +7721,13 @@
         <v>21</v>
       </c>
       <c r="B141" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C141" t="n">
         <v>2021</v>
       </c>
       <c r="D141" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -6222,13 +7741,13 @@
       <c r="H141"/>
       <c r="I141"/>
       <c r="J141" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K141" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L141" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M141" t="n">
         <v>34</v>
@@ -6263,13 +7782,13 @@
         <v>21</v>
       </c>
       <c r="B142" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C142" t="n">
         <v>2021</v>
       </c>
       <c r="D142" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -6283,13 +7802,13 @@
       <c r="H142"/>
       <c r="I142"/>
       <c r="J142" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K142" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L142" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M142" t="n">
         <v>33</v>
@@ -6324,13 +7843,13 @@
         <v>21</v>
       </c>
       <c r="B143" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C143" t="n">
         <v>2021</v>
       </c>
       <c r="D143" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E143" t="n">
         <v>5</v>
@@ -6345,10 +7864,10 @@
       <c r="I143"/>
       <c r="J143"/>
       <c r="K143" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L143" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M143"/>
       <c r="N143"/>
@@ -6377,13 +7896,13 @@
         <v>21</v>
       </c>
       <c r="B144" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C144" t="n">
         <v>2021</v>
       </c>
       <c r="D144" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
@@ -6398,10 +7917,10 @@
       <c r="I144"/>
       <c r="J144"/>
       <c r="K144" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L144" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M144"/>
       <c r="N144"/>
@@ -6420,13 +7939,13 @@
         <v>21</v>
       </c>
       <c r="B145" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C145" t="n">
         <v>2021</v>
       </c>
       <c r="D145" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E145" t="n">
         <v>6</v>
@@ -6440,13 +7959,13 @@
       <c r="H145"/>
       <c r="I145"/>
       <c r="J145" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="K145" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L145" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M145" t="n">
         <v>38</v>
@@ -6481,13 +8000,13 @@
         <v>21</v>
       </c>
       <c r="B146" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C146" t="n">
         <v>2021</v>
       </c>
       <c r="D146" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E146" t="n">
         <v>6</v>
@@ -6501,13 +8020,13 @@
       <c r="H146"/>
       <c r="I146"/>
       <c r="J146" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="K146" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L146" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M146" t="n">
         <v>39</v>
@@ -6542,13 +8061,13 @@
         <v>21</v>
       </c>
       <c r="B147" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C147" t="n">
         <v>2021</v>
       </c>
       <c r="D147" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E147" t="n">
         <v>6</v>
@@ -6563,10 +8082,10 @@
       <c r="I147"/>
       <c r="J147"/>
       <c r="K147" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L147" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M147"/>
       <c r="N147"/>
@@ -6595,13 +8114,13 @@
         <v>21</v>
       </c>
       <c r="B148" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C148" t="n">
         <v>2021</v>
       </c>
       <c r="D148" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E148" t="n">
         <v>6</v>
@@ -6616,10 +8135,10 @@
       <c r="I148"/>
       <c r="J148"/>
       <c r="K148" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L148" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M148"/>
       <c r="N148"/>
@@ -6638,13 +8157,13 @@
         <v>21</v>
       </c>
       <c r="B149" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C149" t="n">
         <v>2021</v>
       </c>
       <c r="D149" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -6658,13 +8177,13 @@
       <c r="H149"/>
       <c r="I149"/>
       <c r="J149" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="K149" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L149" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M149" t="n">
         <v>35</v>
@@ -6699,13 +8218,13 @@
         <v>21</v>
       </c>
       <c r="B150" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C150" t="n">
         <v>2021</v>
       </c>
       <c r="D150" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -6719,13 +8238,13 @@
       <c r="H150"/>
       <c r="I150"/>
       <c r="J150" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K150" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L150" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M150" t="n">
         <v>35</v>
@@ -6760,13 +8279,13 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C151" t="n">
         <v>2021</v>
       </c>
       <c r="D151" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -6781,10 +8300,10 @@
       <c r="I151"/>
       <c r="J151"/>
       <c r="K151" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L151" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M151"/>
       <c r="N151"/>
@@ -6813,13 +8332,13 @@
         <v>21</v>
       </c>
       <c r="B152" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C152" t="n">
         <v>2021</v>
       </c>
       <c r="D152" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -6834,10 +8353,10 @@
       <c r="I152"/>
       <c r="J152"/>
       <c r="K152" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L152" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M152"/>
       <c r="N152"/>
@@ -6856,13 +8375,13 @@
         <v>21</v>
       </c>
       <c r="B153" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C153" t="n">
         <v>2021</v>
       </c>
       <c r="D153" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -6876,13 +8395,13 @@
       <c r="H153"/>
       <c r="I153"/>
       <c r="J153" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="K153" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="L153" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M153" t="n">
         <v>36</v>
@@ -6917,13 +8436,13 @@
         <v>21</v>
       </c>
       <c r="B154" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C154" t="n">
         <v>2021</v>
       </c>
       <c r="D154" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -6937,13 +8456,13 @@
       <c r="H154"/>
       <c r="I154"/>
       <c r="J154" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="K154" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="L154" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M154" t="n">
         <v>38</v>
@@ -6978,13 +8497,13 @@
         <v>21</v>
       </c>
       <c r="B155" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C155" t="n">
         <v>2021</v>
       </c>
       <c r="D155" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -6999,10 +8518,10 @@
       <c r="I155"/>
       <c r="J155"/>
       <c r="K155" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="L155" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M155"/>
       <c r="N155"/>
@@ -7031,13 +8550,13 @@
         <v>21</v>
       </c>
       <c r="B156" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C156" t="n">
         <v>2021</v>
       </c>
       <c r="D156" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
@@ -7052,10 +8571,10 @@
       <c r="I156"/>
       <c r="J156"/>
       <c r="K156" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="L156" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M156"/>
       <c r="N156"/>
@@ -7074,13 +8593,13 @@
         <v>21</v>
       </c>
       <c r="B157" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C157" t="n">
         <v>2021</v>
       </c>
       <c r="D157" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E157" t="n">
         <v>9</v>
@@ -7094,13 +8613,13 @@
       <c r="H157"/>
       <c r="I157"/>
       <c r="J157" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="K157" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L157" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M157" t="n">
         <v>30</v>
@@ -7135,13 +8654,13 @@
         <v>21</v>
       </c>
       <c r="B158" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C158" t="n">
         <v>2021</v>
       </c>
       <c r="D158" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E158" t="n">
         <v>9</v>
@@ -7155,13 +8674,13 @@
       <c r="H158"/>
       <c r="I158"/>
       <c r="J158" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K158" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L158" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M158" t="n">
         <v>20</v>
@@ -7196,13 +8715,13 @@
         <v>21</v>
       </c>
       <c r="B159" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C159" t="n">
         <v>2021</v>
       </c>
       <c r="D159" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E159" t="n">
         <v>9</v>
@@ -7217,10 +8736,10 @@
       <c r="I159"/>
       <c r="J159"/>
       <c r="K159" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L159" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M159"/>
       <c r="N159"/>
@@ -7249,13 +8768,13 @@
         <v>21</v>
       </c>
       <c r="B160" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C160" t="n">
         <v>2021</v>
       </c>
       <c r="D160" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E160" t="n">
         <v>9</v>
@@ -7270,10 +8789,10 @@
       <c r="I160"/>
       <c r="J160"/>
       <c r="K160" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L160" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M160"/>
       <c r="N160"/>
@@ -7292,13 +8811,13 @@
         <v>21</v>
       </c>
       <c r="B161" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C161" t="n">
         <v>2021</v>
       </c>
       <c r="D161" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E161" t="n">
         <v>10</v>
@@ -7312,13 +8831,13 @@
       <c r="H161"/>
       <c r="I161"/>
       <c r="J161" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K161" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L161" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M161" t="n">
         <v>38</v>
@@ -7353,13 +8872,13 @@
         <v>21</v>
       </c>
       <c r="B162" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C162" t="n">
         <v>2021</v>
       </c>
       <c r="D162" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E162" t="n">
         <v>10</v>
@@ -7373,13 +8892,13 @@
       <c r="H162"/>
       <c r="I162"/>
       <c r="J162" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K162" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L162" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M162" t="n">
         <v>37</v>
@@ -7414,13 +8933,13 @@
         <v>21</v>
       </c>
       <c r="B163" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C163" t="n">
         <v>2021</v>
       </c>
       <c r="D163" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E163" t="n">
         <v>10</v>
@@ -7435,10 +8954,10 @@
       <c r="I163"/>
       <c r="J163"/>
       <c r="K163" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L163" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M163"/>
       <c r="N163"/>
@@ -7467,13 +8986,13 @@
         <v>21</v>
       </c>
       <c r="B164" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C164" t="n">
         <v>2021</v>
       </c>
       <c r="D164" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E164" t="n">
         <v>10</v>
@@ -7488,10 +9007,10 @@
       <c r="I164"/>
       <c r="J164"/>
       <c r="K164" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L164" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M164"/>
       <c r="N164"/>
@@ -7510,13 +9029,13 @@
         <v>21</v>
       </c>
       <c r="B165" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C165" t="n">
         <v>2021</v>
       </c>
       <c r="D165" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E165" t="n">
         <v>11</v>
@@ -7530,13 +9049,13 @@
       <c r="H165"/>
       <c r="I165"/>
       <c r="J165" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="K165" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L165" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M165" t="n">
         <v>39</v>
@@ -7560,7 +9079,7 @@
         <v>12.7</v>
       </c>
       <c r="T165" t="n">
-        <v>44232</v>
+        <v>2.5</v>
       </c>
       <c r="U165" t="n">
         <v>56.6</v>
@@ -7571,13 +9090,13 @@
         <v>21</v>
       </c>
       <c r="B166" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C166" t="n">
         <v>2021</v>
       </c>
       <c r="D166" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E166" t="n">
         <v>11</v>
@@ -7591,13 +9110,13 @@
       <c r="H166"/>
       <c r="I166"/>
       <c r="J166" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="K166" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L166" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M166" t="n">
         <v>38</v>
@@ -7632,13 +9151,13 @@
         <v>21</v>
       </c>
       <c r="B167" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C167" t="n">
         <v>2021</v>
       </c>
       <c r="D167" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E167" t="n">
         <v>11</v>
@@ -7653,10 +9172,10 @@
       <c r="I167"/>
       <c r="J167"/>
       <c r="K167" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L167" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M167"/>
       <c r="N167"/>
@@ -7685,13 +9204,13 @@
         <v>21</v>
       </c>
       <c r="B168" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C168" t="n">
         <v>2021</v>
       </c>
       <c r="D168" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E168" t="n">
         <v>11</v>
@@ -7706,10 +9225,10 @@
       <c r="I168"/>
       <c r="J168"/>
       <c r="K168" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L168" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M168"/>
       <c r="N168"/>
@@ -7728,13 +9247,13 @@
         <v>21</v>
       </c>
       <c r="B169" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C169" t="n">
         <v>2021</v>
       </c>
       <c r="D169" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E169" t="n">
         <v>12</v>
@@ -7748,13 +9267,13 @@
       <c r="H169"/>
       <c r="I169"/>
       <c r="J169" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K169" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L169" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M169" t="n">
         <v>34</v>
@@ -7789,13 +9308,13 @@
         <v>21</v>
       </c>
       <c r="B170" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C170" t="n">
         <v>2021</v>
       </c>
       <c r="D170" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E170" t="n">
         <v>12</v>
@@ -7809,13 +9328,13 @@
       <c r="H170"/>
       <c r="I170"/>
       <c r="J170" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="K170" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L170" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M170" t="n">
         <v>35</v>
@@ -7850,13 +9369,13 @@
         <v>21</v>
       </c>
       <c r="B171" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C171" t="n">
         <v>2021</v>
       </c>
       <c r="D171" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E171" t="n">
         <v>12</v>
@@ -7871,10 +9390,10 @@
       <c r="I171"/>
       <c r="J171"/>
       <c r="K171" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L171" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M171"/>
       <c r="N171"/>
@@ -7903,13 +9422,13 @@
         <v>21</v>
       </c>
       <c r="B172" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C172" t="n">
         <v>2021</v>
       </c>
       <c r="D172" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E172" t="n">
         <v>12</v>
@@ -7924,10 +9443,10 @@
       <c r="I172"/>
       <c r="J172"/>
       <c r="K172" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L172" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M172"/>
       <c r="N172"/>
@@ -7946,13 +9465,13 @@
         <v>21</v>
       </c>
       <c r="B173" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C173" t="n">
         <v>2021</v>
       </c>
       <c r="D173" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -7966,13 +9485,13 @@
       <c r="H173"/>
       <c r="I173"/>
       <c r="J173" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="K173" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L173" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M173" t="n">
         <v>37</v>
@@ -8007,13 +9526,13 @@
         <v>21</v>
       </c>
       <c r="B174" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C174" t="n">
         <v>2021</v>
       </c>
       <c r="D174" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -8027,13 +9546,13 @@
       <c r="H174"/>
       <c r="I174"/>
       <c r="J174" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="K174" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L174" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M174" t="n">
         <v>37</v>
@@ -8068,13 +9587,13 @@
         <v>21</v>
       </c>
       <c r="B175" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C175" t="n">
         <v>2021</v>
       </c>
       <c r="D175" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -8088,13 +9607,13 @@
       <c r="H175"/>
       <c r="I175"/>
       <c r="J175" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K175" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L175" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M175" t="n">
         <v>37</v>
@@ -8129,13 +9648,13 @@
         <v>21</v>
       </c>
       <c r="B176" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C176" t="n">
         <v>2021</v>
       </c>
       <c r="D176" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -8150,10 +9669,10 @@
       <c r="I176"/>
       <c r="J176"/>
       <c r="K176" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L176" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M176"/>
       <c r="N176"/>
@@ -8182,13 +9701,13 @@
         <v>21</v>
       </c>
       <c r="B177" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C177" t="n">
         <v>2021</v>
       </c>
       <c r="D177" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -8203,10 +9722,10 @@
       <c r="I177"/>
       <c r="J177"/>
       <c r="K177" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L177" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M177"/>
       <c r="N177"/>
@@ -8225,13 +9744,13 @@
         <v>21</v>
       </c>
       <c r="B178" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C178" t="n">
         <v>2021</v>
       </c>
       <c r="D178" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E178" t="n">
         <v>14</v>
@@ -8245,13 +9764,13 @@
       <c r="H178"/>
       <c r="I178"/>
       <c r="J178" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K178" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="L178" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M178" t="n">
         <v>33</v>
@@ -8286,13 +9805,13 @@
         <v>21</v>
       </c>
       <c r="B179" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C179" t="n">
         <v>2021</v>
       </c>
       <c r="D179" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E179" t="n">
         <v>14</v>
@@ -8306,13 +9825,13 @@
       <c r="H179"/>
       <c r="I179"/>
       <c r="J179" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="K179" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="L179" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M179" t="n">
         <v>23</v>
@@ -8347,13 +9866,13 @@
         <v>21</v>
       </c>
       <c r="B180" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C180" t="n">
         <v>2021</v>
       </c>
       <c r="D180" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E180" t="n">
         <v>14</v>
@@ -8368,10 +9887,10 @@
       <c r="I180"/>
       <c r="J180"/>
       <c r="K180" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="L180" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M180"/>
       <c r="N180"/>
@@ -8400,13 +9919,13 @@
         <v>21</v>
       </c>
       <c r="B181" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C181" t="n">
         <v>2021</v>
       </c>
       <c r="D181" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E181" t="n">
         <v>14</v>
@@ -8421,10 +9940,10 @@
       <c r="I181"/>
       <c r="J181"/>
       <c r="K181" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="L181" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M181"/>
       <c r="N181"/>
@@ -8443,13 +9962,13 @@
         <v>21</v>
       </c>
       <c r="B182" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C182" t="n">
         <v>2021</v>
       </c>
       <c r="D182" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E182" t="n">
         <v>15</v>
@@ -8463,13 +9982,13 @@
       <c r="H182"/>
       <c r="I182"/>
       <c r="J182" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K182" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L182" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M182" t="n">
         <v>39</v>
@@ -8504,13 +10023,13 @@
         <v>21</v>
       </c>
       <c r="B183" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C183" t="n">
         <v>2021</v>
       </c>
       <c r="D183" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E183" t="n">
         <v>15</v>
@@ -8524,13 +10043,13 @@
       <c r="H183"/>
       <c r="I183"/>
       <c r="J183" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="K183" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L183" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M183" t="n">
         <v>39</v>
@@ -8565,13 +10084,13 @@
         <v>21</v>
       </c>
       <c r="B184" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C184" t="n">
         <v>2021</v>
       </c>
       <c r="D184" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E184" t="n">
         <v>15</v>
@@ -8586,10 +10105,10 @@
       <c r="I184"/>
       <c r="J184"/>
       <c r="K184" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L184" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M184"/>
       <c r="N184"/>
@@ -8618,13 +10137,13 @@
         <v>21</v>
       </c>
       <c r="B185" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C185" t="n">
         <v>2021</v>
       </c>
       <c r="D185" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E185" t="n">
         <v>15</v>
@@ -8639,10 +10158,10 @@
       <c r="I185"/>
       <c r="J185"/>
       <c r="K185" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L185" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M185"/>
       <c r="N185"/>
@@ -8661,13 +10180,13 @@
         <v>21</v>
       </c>
       <c r="B186" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C186" t="n">
         <v>2021</v>
       </c>
       <c r="D186" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E186" t="n">
         <v>16</v>
@@ -8681,13 +10200,13 @@
       <c r="H186"/>
       <c r="I186"/>
       <c r="J186" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K186" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L186" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M186" t="n">
         <v>32</v>
@@ -8722,13 +10241,13 @@
         <v>21</v>
       </c>
       <c r="B187" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C187" t="n">
         <v>2021</v>
       </c>
       <c r="D187" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E187" t="n">
         <v>16</v>
@@ -8742,13 +10261,13 @@
       <c r="H187"/>
       <c r="I187"/>
       <c r="J187" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="K187" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L187" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M187" t="n">
         <v>33</v>
@@ -8783,13 +10302,13 @@
         <v>21</v>
       </c>
       <c r="B188" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C188" t="n">
         <v>2021</v>
       </c>
       <c r="D188" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E188" t="n">
         <v>16</v>
@@ -8804,10 +10323,10 @@
       <c r="I188"/>
       <c r="J188"/>
       <c r="K188" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L188" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M188"/>
       <c r="N188"/>
@@ -8836,13 +10355,13 @@
         <v>21</v>
       </c>
       <c r="B189" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C189" t="n">
         <v>2021</v>
       </c>
       <c r="D189" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E189" t="n">
         <v>16</v>
@@ -8857,10 +10376,10 @@
       <c r="I189"/>
       <c r="J189"/>
       <c r="K189" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L189" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M189"/>
       <c r="N189"/>
@@ -8879,13 +10398,13 @@
         <v>21</v>
       </c>
       <c r="B190" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C190" t="n">
         <v>2021</v>
       </c>
       <c r="D190" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E190" t="n">
         <v>17</v>
@@ -8899,13 +10418,13 @@
       <c r="H190"/>
       <c r="I190"/>
       <c r="J190" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K190" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L190" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M190" t="n">
         <v>39</v>
@@ -8940,13 +10459,13 @@
         <v>21</v>
       </c>
       <c r="B191" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C191" t="n">
         <v>2021</v>
       </c>
       <c r="D191" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E191" t="n">
         <v>17</v>
@@ -8960,13 +10479,13 @@
       <c r="H191"/>
       <c r="I191"/>
       <c r="J191" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K191" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L191" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M191" t="n">
         <v>39</v>
@@ -9001,13 +10520,13 @@
         <v>21</v>
       </c>
       <c r="B192" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C192" t="n">
         <v>2021</v>
       </c>
       <c r="D192" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E192" t="n">
         <v>17</v>
@@ -9022,10 +10541,10 @@
       <c r="I192"/>
       <c r="J192"/>
       <c r="K192" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L192" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M192"/>
       <c r="N192"/>
@@ -9054,13 +10573,13 @@
         <v>21</v>
       </c>
       <c r="B193" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C193" t="n">
         <v>2021</v>
       </c>
       <c r="D193" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E193" t="n">
         <v>17</v>
@@ -9075,10 +10594,10 @@
       <c r="I193"/>
       <c r="J193"/>
       <c r="K193" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L193" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M193"/>
       <c r="N193"/>
@@ -9097,13 +10616,13 @@
         <v>21</v>
       </c>
       <c r="B194" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C194" t="n">
         <v>2021</v>
       </c>
       <c r="D194" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E194" t="n">
         <v>18</v>
@@ -9117,13 +10636,13 @@
       <c r="H194"/>
       <c r="I194"/>
       <c r="J194" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K194" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L194" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M194" t="n">
         <v>40</v>
@@ -9158,13 +10677,13 @@
         <v>21</v>
       </c>
       <c r="B195" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C195" t="n">
         <v>2021</v>
       </c>
       <c r="D195" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E195" t="n">
         <v>18</v>
@@ -9178,13 +10697,13 @@
       <c r="H195"/>
       <c r="I195"/>
       <c r="J195" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K195" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L195" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M195" t="n">
         <v>41</v>
@@ -9219,13 +10738,13 @@
         <v>21</v>
       </c>
       <c r="B196" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C196" t="n">
         <v>2021</v>
       </c>
       <c r="D196" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E196" t="n">
         <v>18</v>
@@ -9240,10 +10759,10 @@
       <c r="I196"/>
       <c r="J196"/>
       <c r="K196" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L196" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M196"/>
       <c r="N196"/>
@@ -9272,13 +10791,13 @@
         <v>21</v>
       </c>
       <c r="B197" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C197" t="n">
         <v>2021</v>
       </c>
       <c r="D197" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E197" t="n">
         <v>18</v>
@@ -9293,10 +10812,10 @@
       <c r="I197"/>
       <c r="J197"/>
       <c r="K197" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L197" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M197"/>
       <c r="N197"/>
@@ -9315,13 +10834,13 @@
         <v>21</v>
       </c>
       <c r="B198" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C198" t="n">
         <v>2021</v>
       </c>
       <c r="D198" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E198" t="n">
         <v>19</v>
@@ -9335,13 +10854,13 @@
       <c r="H198"/>
       <c r="I198"/>
       <c r="J198" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K198" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L198" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M198" t="n">
         <v>40</v>
@@ -9376,13 +10895,13 @@
         <v>21</v>
       </c>
       <c r="B199" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C199" t="n">
         <v>2021</v>
       </c>
       <c r="D199" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E199" t="n">
         <v>19</v>
@@ -9396,13 +10915,13 @@
       <c r="H199"/>
       <c r="I199"/>
       <c r="J199" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="K199" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L199" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M199" t="n">
         <v>43</v>
@@ -9437,13 +10956,13 @@
         <v>21</v>
       </c>
       <c r="B200" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C200" t="n">
         <v>2021</v>
       </c>
       <c r="D200" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E200" t="n">
         <v>19</v>
@@ -9458,10 +10977,10 @@
       <c r="I200"/>
       <c r="J200"/>
       <c r="K200" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L200" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M200"/>
       <c r="N200"/>
@@ -9490,13 +11009,13 @@
         <v>21</v>
       </c>
       <c r="B201" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C201" t="n">
         <v>2021</v>
       </c>
       <c r="D201" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E201" t="n">
         <v>19</v>
@@ -9511,10 +11030,10 @@
       <c r="I201"/>
       <c r="J201"/>
       <c r="K201" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L201" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M201"/>
       <c r="N201"/>
@@ -9533,13 +11052,13 @@
         <v>21</v>
       </c>
       <c r="B202" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C202" t="n">
         <v>2021</v>
       </c>
       <c r="D202" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E202" t="n">
         <v>20</v>
@@ -9553,13 +11072,13 @@
       <c r="H202"/>
       <c r="I202"/>
       <c r="J202" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K202" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L202" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M202" t="n">
         <v>45</v>
@@ -9594,13 +11113,13 @@
         <v>21</v>
       </c>
       <c r="B203" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C203" t="n">
         <v>2021</v>
       </c>
       <c r="D203" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E203" t="n">
         <v>20</v>
@@ -9614,13 +11133,13 @@
       <c r="H203"/>
       <c r="I203"/>
       <c r="J203" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K203" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L203" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M203" t="n">
         <v>43</v>
@@ -9655,13 +11174,13 @@
         <v>21</v>
       </c>
       <c r="B204" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C204" t="n">
         <v>2021</v>
       </c>
       <c r="D204" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E204" t="n">
         <v>20</v>
@@ -9676,10 +11195,10 @@
       <c r="I204"/>
       <c r="J204"/>
       <c r="K204" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L204" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M204"/>
       <c r="N204"/>
@@ -9708,13 +11227,13 @@
         <v>21</v>
       </c>
       <c r="B205" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C205" t="n">
         <v>2021</v>
       </c>
       <c r="D205" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E205" t="n">
         <v>20</v>
@@ -9729,10 +11248,10 @@
       <c r="I205"/>
       <c r="J205"/>
       <c r="K205" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L205" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M205"/>
       <c r="N205"/>
@@ -9751,13 +11270,13 @@
         <v>21</v>
       </c>
       <c r="B206" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C206" t="n">
         <v>2021</v>
       </c>
       <c r="D206" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E206" t="n">
         <v>21</v>
@@ -9771,13 +11290,13 @@
       <c r="H206"/>
       <c r="I206"/>
       <c r="J206" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K206" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="L206" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M206" t="n">
         <v>40</v>
@@ -9812,13 +11331,13 @@
         <v>21</v>
       </c>
       <c r="B207" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C207" t="n">
         <v>2021</v>
       </c>
       <c r="D207" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E207" t="n">
         <v>21</v>
@@ -9832,13 +11351,13 @@
       <c r="H207"/>
       <c r="I207"/>
       <c r="J207" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="K207" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="L207" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M207" t="n">
         <v>40</v>
@@ -9873,13 +11392,13 @@
         <v>21</v>
       </c>
       <c r="B208" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C208" t="n">
         <v>2021</v>
       </c>
       <c r="D208" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E208" t="n">
         <v>21</v>
@@ -9894,10 +11413,10 @@
       <c r="I208"/>
       <c r="J208"/>
       <c r="K208" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="L208" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M208"/>
       <c r="N208"/>
@@ -9926,13 +11445,13 @@
         <v>21</v>
       </c>
       <c r="B209" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C209" t="n">
         <v>2021</v>
       </c>
       <c r="D209" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E209" t="n">
         <v>21</v>
@@ -9947,10 +11466,10 @@
       <c r="I209"/>
       <c r="J209"/>
       <c r="K209" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="L209" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M209"/>
       <c r="N209"/>
@@ -9969,13 +11488,13 @@
         <v>21</v>
       </c>
       <c r="B210" t="s">
+        <v>63</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D210" t="s">
         <v>53</v>
-      </c>
-      <c r="C210" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D210" t="s">
-        <v>44</v>
       </c>
       <c r="E210" t="n">
         <v>22</v>
@@ -9989,13 +11508,13 @@
       <c r="H210"/>
       <c r="I210"/>
       <c r="J210" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="K210" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L210" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M210" t="n">
         <v>41</v>
@@ -10030,13 +11549,13 @@
         <v>21</v>
       </c>
       <c r="B211" t="s">
+        <v>63</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D211" t="s">
         <v>53</v>
-      </c>
-      <c r="C211" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D211" t="s">
-        <v>44</v>
       </c>
       <c r="E211" t="n">
         <v>22</v>
@@ -10050,13 +11569,13 @@
       <c r="H211"/>
       <c r="I211"/>
       <c r="J211" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K211" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L211" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M211" t="n">
         <v>43</v>
@@ -10091,13 +11610,13 @@
         <v>21</v>
       </c>
       <c r="B212" t="s">
+        <v>63</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D212" t="s">
         <v>53</v>
-      </c>
-      <c r="C212" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D212" t="s">
-        <v>44</v>
       </c>
       <c r="E212" t="n">
         <v>22</v>
@@ -10112,10 +11631,10 @@
       <c r="I212"/>
       <c r="J212"/>
       <c r="K212" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L212" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M212"/>
       <c r="N212"/>
@@ -10144,13 +11663,13 @@
         <v>21</v>
       </c>
       <c r="B213" t="s">
+        <v>63</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D213" t="s">
         <v>53</v>
-      </c>
-      <c r="C213" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D213" t="s">
-        <v>44</v>
       </c>
       <c r="E213" t="n">
         <v>22</v>
@@ -10165,10 +11684,10 @@
       <c r="I213"/>
       <c r="J213"/>
       <c r="K213" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L213" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M213"/>
       <c r="N213"/>
@@ -10187,13 +11706,13 @@
         <v>21</v>
       </c>
       <c r="B214" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C214" t="n">
         <v>2021</v>
       </c>
       <c r="D214" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E214" t="n">
         <v>23</v>
@@ -10207,13 +11726,13 @@
       <c r="H214"/>
       <c r="I214"/>
       <c r="J214" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K214" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L214" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M214" t="n">
         <v>42</v>
@@ -10248,13 +11767,13 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C215" t="n">
         <v>2021</v>
       </c>
       <c r="D215" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E215" t="n">
         <v>23</v>
@@ -10268,13 +11787,13 @@
       <c r="H215"/>
       <c r="I215"/>
       <c r="J215" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K215" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L215" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M215" t="n">
         <v>41</v>
@@ -10309,13 +11828,13 @@
         <v>21</v>
       </c>
       <c r="B216" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C216" t="n">
         <v>2021</v>
       </c>
       <c r="D216" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E216" t="n">
         <v>23</v>
@@ -10330,10 +11849,10 @@
       <c r="I216"/>
       <c r="J216"/>
       <c r="K216" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L216" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M216"/>
       <c r="N216"/>
@@ -10362,13 +11881,13 @@
         <v>21</v>
       </c>
       <c r="B217" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C217" t="n">
         <v>2021</v>
       </c>
       <c r="D217" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E217" t="n">
         <v>23</v>
@@ -10383,10 +11902,10 @@
       <c r="I217"/>
       <c r="J217"/>
       <c r="K217" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L217" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M217"/>
       <c r="N217"/>
@@ -10405,13 +11924,13 @@
         <v>21</v>
       </c>
       <c r="B218" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C218" t="n">
         <v>2021</v>
       </c>
       <c r="D218" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E218" t="n">
         <v>24</v>
@@ -10425,13 +11944,13 @@
       <c r="H218"/>
       <c r="I218"/>
       <c r="J218" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K218" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L218" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M218" t="n">
         <v>38</v>
@@ -10466,13 +11985,13 @@
         <v>21</v>
       </c>
       <c r="B219" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C219" t="n">
         <v>2021</v>
       </c>
       <c r="D219" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E219" t="n">
         <v>24</v>
@@ -10486,13 +12005,13 @@
       <c r="H219"/>
       <c r="I219"/>
       <c r="J219" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K219" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L219" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M219" t="n">
         <v>39</v>
@@ -10527,13 +12046,13 @@
         <v>21</v>
       </c>
       <c r="B220" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C220" t="n">
         <v>2021</v>
       </c>
       <c r="D220" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E220" t="n">
         <v>24</v>
@@ -10548,10 +12067,10 @@
       <c r="I220"/>
       <c r="J220"/>
       <c r="K220" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L220" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M220"/>
       <c r="N220"/>
@@ -10580,13 +12099,13 @@
         <v>21</v>
       </c>
       <c r="B221" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C221" t="n">
         <v>2021</v>
       </c>
       <c r="D221" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E221" t="n">
         <v>24</v>
@@ -10601,10 +12120,10 @@
       <c r="I221"/>
       <c r="J221"/>
       <c r="K221" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L221" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M221"/>
       <c r="N221"/>
@@ -10623,13 +12142,13 @@
         <v>21</v>
       </c>
       <c r="B222" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C222" t="n">
         <v>2021</v>
       </c>
       <c r="D222" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E222" t="n">
         <v>25</v>
@@ -10643,13 +12162,13 @@
       <c r="H222"/>
       <c r="I222"/>
       <c r="J222" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K222" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L222" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M222" t="n">
         <v>34</v>
@@ -10684,13 +12203,13 @@
         <v>21</v>
       </c>
       <c r="B223" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C223" t="n">
         <v>2021</v>
       </c>
       <c r="D223" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E223" t="n">
         <v>25</v>
@@ -10704,13 +12223,13 @@
       <c r="H223"/>
       <c r="I223"/>
       <c r="J223" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K223" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L223" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M223" t="n">
         <v>35</v>
@@ -10745,13 +12264,13 @@
         <v>21</v>
       </c>
       <c r="B224" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C224" t="n">
         <v>2021</v>
       </c>
       <c r="D224" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E224" t="n">
         <v>25</v>
@@ -10766,10 +12285,10 @@
       <c r="I224"/>
       <c r="J224"/>
       <c r="K224" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L224" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M224"/>
       <c r="N224"/>
@@ -10798,13 +12317,13 @@
         <v>21</v>
       </c>
       <c r="B225" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C225" t="n">
         <v>2021</v>
       </c>
       <c r="D225" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E225" t="n">
         <v>25</v>
@@ -10819,10 +12338,10 @@
       <c r="I225"/>
       <c r="J225"/>
       <c r="K225" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L225" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M225"/>
       <c r="N225"/>
@@ -10841,13 +12360,13 @@
         <v>21</v>
       </c>
       <c r="B226" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C226" t="n">
         <v>2021</v>
       </c>
       <c r="D226" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E226" t="n">
         <v>26</v>
@@ -10861,13 +12380,13 @@
       <c r="H226"/>
       <c r="I226"/>
       <c r="J226" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K226" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L226" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M226" t="n">
         <v>40</v>
@@ -10902,13 +12421,13 @@
         <v>21</v>
       </c>
       <c r="B227" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C227" t="n">
         <v>2021</v>
       </c>
       <c r="D227" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E227" t="n">
         <v>26</v>
@@ -10922,13 +12441,13 @@
       <c r="H227"/>
       <c r="I227"/>
       <c r="J227" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="K227" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L227" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M227" t="n">
         <v>40</v>
@@ -10963,13 +12482,13 @@
         <v>21</v>
       </c>
       <c r="B228" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C228" t="n">
         <v>2021</v>
       </c>
       <c r="D228" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E228" t="n">
         <v>26</v>
@@ -10984,10 +12503,10 @@
       <c r="I228"/>
       <c r="J228"/>
       <c r="K228" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L228" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M228"/>
       <c r="N228"/>
@@ -11016,13 +12535,13 @@
         <v>21</v>
       </c>
       <c r="B229" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C229" t="n">
         <v>2021</v>
       </c>
       <c r="D229" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E229" t="n">
         <v>26</v>
@@ -11037,10 +12556,10 @@
       <c r="I229"/>
       <c r="J229"/>
       <c r="K229" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L229" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M229"/>
       <c r="N229"/>
@@ -11059,13 +12578,13 @@
         <v>21</v>
       </c>
       <c r="B230" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C230" t="n">
         <v>2021</v>
       </c>
       <c r="D230" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E230" t="n">
         <v>27</v>
@@ -11079,13 +12598,13 @@
       <c r="H230"/>
       <c r="I230"/>
       <c r="J230" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="K230" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L230" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M230" t="n">
         <v>38</v>
@@ -11120,13 +12639,13 @@
         <v>21</v>
       </c>
       <c r="B231" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C231" t="n">
         <v>2021</v>
       </c>
       <c r="D231" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E231" t="n">
         <v>27</v>
@@ -11140,13 +12659,13 @@
       <c r="H231"/>
       <c r="I231"/>
       <c r="J231" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="K231" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L231" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M231" t="n">
         <v>39</v>
@@ -11181,13 +12700,13 @@
         <v>21</v>
       </c>
       <c r="B232" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C232" t="n">
         <v>2021</v>
       </c>
       <c r="D232" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E232" t="n">
         <v>27</v>
@@ -11202,10 +12721,10 @@
       <c r="I232"/>
       <c r="J232"/>
       <c r="K232" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L232" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M232"/>
       <c r="N232"/>
@@ -11234,13 +12753,13 @@
         <v>21</v>
       </c>
       <c r="B233" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C233" t="n">
         <v>2021</v>
       </c>
       <c r="D233" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E233" t="n">
         <v>27</v>
@@ -11255,10 +12774,10 @@
       <c r="I233"/>
       <c r="J233"/>
       <c r="K233" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L233" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M233"/>
       <c r="N233"/>
@@ -11277,13 +12796,13 @@
         <v>21</v>
       </c>
       <c r="B234" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C234" t="n">
         <v>2021</v>
       </c>
       <c r="D234" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E234" t="n">
         <v>28</v>
@@ -11297,13 +12816,13 @@
       <c r="H234"/>
       <c r="I234"/>
       <c r="J234" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K234" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="L234" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M234" t="n">
         <v>38</v>
@@ -11338,13 +12857,13 @@
         <v>21</v>
       </c>
       <c r="B235" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C235" t="n">
         <v>2021</v>
       </c>
       <c r="D235" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E235" t="n">
         <v>28</v>
@@ -11358,13 +12877,13 @@
       <c r="H235"/>
       <c r="I235"/>
       <c r="J235" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K235" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="L235" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M235" t="n">
         <v>36</v>
@@ -11399,13 +12918,13 @@
         <v>21</v>
       </c>
       <c r="B236" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C236" t="n">
         <v>2021</v>
       </c>
       <c r="D236" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E236" t="n">
         <v>28</v>
@@ -11420,10 +12939,10 @@
       <c r="I236"/>
       <c r="J236"/>
       <c r="K236" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="L236" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M236"/>
       <c r="N236"/>
@@ -11452,13 +12971,13 @@
         <v>21</v>
       </c>
       <c r="B237" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C237" t="n">
         <v>2021</v>
       </c>
       <c r="D237" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E237" t="n">
         <v>28</v>
@@ -11473,10 +12992,10 @@
       <c r="I237"/>
       <c r="J237"/>
       <c r="K237" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="L237" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M237"/>
       <c r="N237"/>
@@ -11495,13 +13014,13 @@
         <v>21</v>
       </c>
       <c r="B238" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C238" t="n">
         <v>2021</v>
       </c>
       <c r="D238" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E238" t="n">
         <v>29</v>
@@ -11515,13 +13034,13 @@
       <c r="H238"/>
       <c r="I238"/>
       <c r="J238" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="K238" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L238" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M238" t="n">
         <v>34</v>
@@ -11556,13 +13075,13 @@
         <v>21</v>
       </c>
       <c r="B239" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C239" t="n">
         <v>2021</v>
       </c>
       <c r="D239" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E239" t="n">
         <v>29</v>
@@ -11576,13 +13095,13 @@
       <c r="H239"/>
       <c r="I239"/>
       <c r="J239" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="K239" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L239" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M239" t="n">
         <v>35</v>
@@ -11617,13 +13136,13 @@
         <v>21</v>
       </c>
       <c r="B240" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C240" t="n">
         <v>2021</v>
       </c>
       <c r="D240" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E240" t="n">
         <v>29</v>
@@ -11638,10 +13157,10 @@
       <c r="I240"/>
       <c r="J240"/>
       <c r="K240" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L240" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M240"/>
       <c r="N240"/>
@@ -11670,13 +13189,13 @@
         <v>21</v>
       </c>
       <c r="B241" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C241" t="n">
         <v>2021</v>
       </c>
       <c r="D241" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E241" t="n">
         <v>29</v>
@@ -11691,10 +13210,10 @@
       <c r="I241"/>
       <c r="J241"/>
       <c r="K241" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L241" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M241"/>
       <c r="N241"/>
@@ -11713,13 +13232,13 @@
         <v>21</v>
       </c>
       <c r="B242" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C242" t="n">
         <v>2021</v>
       </c>
       <c r="D242" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E242" t="n">
         <v>30</v>
@@ -11733,13 +13252,13 @@
       <c r="H242"/>
       <c r="I242"/>
       <c r="J242" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="K242" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L242" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M242" t="n">
         <v>30</v>
@@ -11774,13 +13293,13 @@
         <v>21</v>
       </c>
       <c r="B243" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C243" t="n">
         <v>2021</v>
       </c>
       <c r="D243" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E243" t="n">
         <v>30</v>
@@ -11794,13 +13313,13 @@
       <c r="H243"/>
       <c r="I243"/>
       <c r="J243" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="K243" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L243" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M243" t="n">
         <v>32</v>
@@ -11835,13 +13354,13 @@
         <v>21</v>
       </c>
       <c r="B244" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C244" t="n">
         <v>2021</v>
       </c>
       <c r="D244" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E244" t="n">
         <v>30</v>
@@ -11856,10 +13375,10 @@
       <c r="I244"/>
       <c r="J244"/>
       <c r="K244" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L244" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M244"/>
       <c r="N244"/>
@@ -11888,13 +13407,13 @@
         <v>21</v>
       </c>
       <c r="B245" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C245" t="n">
         <v>2021</v>
       </c>
       <c r="D245" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E245" t="n">
         <v>30</v>
@@ -11909,10 +13428,10 @@
       <c r="I245"/>
       <c r="J245"/>
       <c r="K245" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L245" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M245"/>
       <c r="N245"/>

--- a/exports/yield_files/LU 5 Late-1.xlsx
+++ b/exports/yield_files/LU 5 Late-1.xlsx
@@ -648,9 +648,15 @@
       <c r="N2" t="n">
         <v>1.5</v>
       </c>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
+      <c r="O2" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="P2" t="n">
+        <v>41.78</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>64.75</v>
+      </c>
       <c r="R2" t="n">
         <v>3013.1</v>
       </c>
@@ -703,9 +709,15 @@
       <c r="N3" t="n">
         <v>1.5</v>
       </c>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
+      <c r="O3" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="P3" t="n">
+        <v>41.48</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>65.42</v>
+      </c>
       <c r="R3" t="n">
         <v>2345.8</v>
       </c>
@@ -754,9 +766,15 @@
         <v>30</v>
       </c>
       <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
+      <c r="O4" t="n">
+        <v>23.97</v>
+      </c>
+      <c r="P4" t="n">
+        <v>41.54</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>65.51</v>
+      </c>
       <c r="R4" t="n">
         <v>2099.8</v>
       </c>
@@ -852,9 +870,15 @@
       <c r="N6" t="n">
         <v>1.5</v>
       </c>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
+      <c r="O6" t="n">
+        <v>22.59</v>
+      </c>
+      <c r="P6" t="n">
+        <v>46.18</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>68.77</v>
+      </c>
       <c r="R6" t="n">
         <v>2270.9</v>
       </c>
@@ -907,9 +931,15 @@
       <c r="N7" t="n">
         <v>1.5</v>
       </c>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
+      <c r="O7" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="P7" t="n">
+        <v>45.37</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>67.91</v>
+      </c>
       <c r="R7" t="n">
         <v>2435.9</v>
       </c>
@@ -958,9 +988,15 @@
         <v>28</v>
       </c>
       <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
+      <c r="O8" t="n">
+        <v>22.78</v>
+      </c>
+      <c r="P8" t="n">
+        <v>46.25</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>69.03</v>
+      </c>
       <c r="R8" t="n">
         <v>1751.8</v>
       </c>
@@ -1056,9 +1092,15 @@
       <c r="N10" t="n">
         <v>1</v>
       </c>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
+      <c r="O10" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="P10" t="n">
+        <v>41.51</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>66.06</v>
+      </c>
       <c r="R10" t="n">
         <v>2529.2</v>
       </c>
@@ -1111,9 +1153,15 @@
       <c r="N11" t="n">
         <v>1</v>
       </c>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
+      <c r="O11" t="n">
+        <v>24.77</v>
+      </c>
+      <c r="P11" t="n">
+        <v>41.11</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>65.88</v>
+      </c>
       <c r="R11" t="n">
         <v>2345.4</v>
       </c>
@@ -1162,9 +1210,15 @@
         <v>31</v>
       </c>
       <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
+      <c r="O12" t="n">
+        <v>24.79</v>
+      </c>
+      <c r="P12" t="n">
+        <v>42.17</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>66.96</v>
+      </c>
       <c r="R12" t="n">
         <v>2054</v>
       </c>
@@ -1260,9 +1314,15 @@
       <c r="N14" t="n">
         <v>2</v>
       </c>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
+      <c r="O14" t="n">
+        <v>23.65</v>
+      </c>
+      <c r="P14" t="n">
+        <v>43.07</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>66.72</v>
+      </c>
       <c r="R14" t="n">
         <v>2688.5</v>
       </c>
@@ -1315,9 +1375,15 @@
       <c r="N15" t="n">
         <v>2</v>
       </c>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
+      <c r="O15" t="n">
+        <v>23.65</v>
+      </c>
+      <c r="P15" t="n">
+        <v>43.07</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>66.72</v>
+      </c>
       <c r="R15" t="n">
         <v>2688.5</v>
       </c>
@@ -1370,9 +1436,15 @@
       <c r="N16" t="n">
         <v>1</v>
       </c>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
+      <c r="O16" t="n">
+        <v>23.62</v>
+      </c>
+      <c r="P16" t="n">
+        <v>43.99</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>67.61</v>
+      </c>
       <c r="R16" t="n">
         <v>2080.9</v>
       </c>
@@ -1425,9 +1497,15 @@
       <c r="N17" t="n">
         <v>1</v>
       </c>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
+      <c r="O17" t="n">
+        <v>23.62</v>
+      </c>
+      <c r="P17" t="n">
+        <v>43.99</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>67.61</v>
+      </c>
       <c r="R17" t="n">
         <v>2080.9</v>
       </c>
@@ -1476,9 +1554,15 @@
         <v>32</v>
       </c>
       <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
+      <c r="O18" t="n">
+        <v>23.64</v>
+      </c>
+      <c r="P18" t="n">
+        <v>44.13</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>67.77</v>
+      </c>
       <c r="R18" t="n">
         <v>1715.1</v>
       </c>
@@ -1574,9 +1658,15 @@
       <c r="N20" t="n">
         <v>1.5</v>
       </c>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
+      <c r="O20" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="P20" t="n">
+        <v>41.51</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>65.74</v>
+      </c>
       <c r="R20" t="n">
         <v>2598.6</v>
       </c>
@@ -1629,9 +1719,15 @@
       <c r="N21" t="n">
         <v>1</v>
       </c>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
+      <c r="O21" t="n">
+        <v>24.62</v>
+      </c>
+      <c r="P21" t="n">
+        <v>40.61</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>65.23</v>
+      </c>
       <c r="R21" t="n">
         <v>2003.3</v>
       </c>
@@ -1680,9 +1776,15 @@
         <v>36</v>
       </c>
       <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
+      <c r="O22" t="n">
+        <v>24.26</v>
+      </c>
+      <c r="P22" t="n">
+        <v>41.61</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>65.87</v>
+      </c>
       <c r="R22" t="n">
         <v>2015.8</v>
       </c>
@@ -1778,9 +1880,15 @@
       <c r="N24" t="n">
         <v>1.5</v>
       </c>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
+      <c r="O24" t="n">
+        <v>25.17</v>
+      </c>
+      <c r="P24" t="n">
+        <v>40.52</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>65.69</v>
+      </c>
       <c r="R24" t="n">
         <v>2076.4</v>
       </c>
@@ -1833,9 +1941,15 @@
       <c r="N25" t="n">
         <v>1.5</v>
       </c>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
+      <c r="O25" t="n">
+        <v>24.19</v>
+      </c>
+      <c r="P25" t="n">
+        <v>40.77</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>64.96</v>
+      </c>
       <c r="R25" t="n">
         <v>2412.5</v>
       </c>
@@ -1884,9 +1998,15 @@
         <v>38</v>
       </c>
       <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
+      <c r="O26" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="P26" t="n">
+        <v>40.54</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>65.43</v>
+      </c>
       <c r="R26" t="n">
         <v>1937.1</v>
       </c>
@@ -1982,9 +2102,15 @@
       <c r="N28" t="n">
         <v>1.5</v>
       </c>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
+      <c r="O28" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="P28" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>68.04</v>
+      </c>
       <c r="R28" t="n">
         <v>2584.4</v>
       </c>
@@ -2037,9 +2163,15 @@
       <c r="N29" t="n">
         <v>1.5</v>
       </c>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
+      <c r="O29" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="P29" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>67.79</v>
+      </c>
       <c r="R29" t="n">
         <v>2298.1</v>
       </c>
@@ -2088,9 +2220,15 @@
         <v>30</v>
       </c>
       <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
+      <c r="O30" t="n">
+        <v>23.38</v>
+      </c>
+      <c r="P30" t="n">
+        <v>46.53</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>69.91</v>
+      </c>
       <c r="R30" t="n">
         <v>1588.3</v>
       </c>
@@ -2186,9 +2324,15 @@
       <c r="N32" t="n">
         <v>2</v>
       </c>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
+      <c r="O32" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="P32" t="n">
+        <v>44.21</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>66.81</v>
+      </c>
       <c r="R32" t="n">
         <v>2063.3</v>
       </c>
@@ -2241,9 +2385,15 @@
       <c r="N33" t="n">
         <v>1.5</v>
       </c>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
+      <c r="O33" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="P33" t="n">
+        <v>45.41</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>67.95</v>
+      </c>
       <c r="R33" t="n">
         <v>1823.7</v>
       </c>
@@ -2292,9 +2442,15 @@
         <v>35</v>
       </c>
       <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
+      <c r="O34" t="n">
+        <v>22.36</v>
+      </c>
+      <c r="P34" t="n">
+        <v>44.15</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>66.51</v>
+      </c>
       <c r="R34" t="n">
         <v>1784.1</v>
       </c>
@@ -2390,9 +2546,15 @@
       <c r="N36" t="n">
         <v>1</v>
       </c>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
+      <c r="O36" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="P36" t="n">
+        <v>39.72</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>65.23</v>
+      </c>
       <c r="R36" t="n">
         <v>1941.4</v>
       </c>
@@ -2445,9 +2607,15 @@
       <c r="N37" t="n">
         <v>1.5</v>
       </c>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
+      <c r="O37" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="P37" t="n">
+        <v>40.51</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>66.11</v>
+      </c>
       <c r="R37" t="n">
         <v>2629.6</v>
       </c>
@@ -2496,9 +2664,15 @@
         <v>32</v>
       </c>
       <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
+      <c r="O38" t="n">
+        <v>24.69</v>
+      </c>
+      <c r="P38" t="n">
+        <v>40.94</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>65.63</v>
+      </c>
       <c r="R38" t="n">
         <v>2024.9</v>
       </c>
@@ -2594,9 +2768,15 @@
       <c r="N40" t="n">
         <v>2.5</v>
       </c>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
+      <c r="O40" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="P40" t="n">
+        <v>42.62</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>65.93</v>
+      </c>
       <c r="R40" t="n">
         <v>2470</v>
       </c>
@@ -2649,9 +2829,15 @@
       <c r="N41" t="n">
         <v>1</v>
       </c>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
+      <c r="O41" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="P41" t="n">
+        <v>42.18</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>65.51</v>
+      </c>
       <c r="R41" t="n">
         <v>1362.7</v>
       </c>
@@ -2700,9 +2886,15 @@
         <v>33</v>
       </c>
       <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
+      <c r="O42" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="P42" t="n">
+        <v>41.97</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>65.29</v>
+      </c>
       <c r="R42" t="n">
         <v>1560</v>
       </c>
@@ -2798,9 +2990,15 @@
       <c r="N44" t="n">
         <v>1</v>
       </c>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
+      <c r="O44" t="n">
+        <v>25.35</v>
+      </c>
+      <c r="P44" t="n">
+        <v>39.48</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>64.83</v>
+      </c>
       <c r="R44" t="n">
         <v>2787.7</v>
       </c>
@@ -2853,9 +3051,15 @@
       <c r="N45" t="n">
         <v>1</v>
       </c>
-      <c r="O45"/>
-      <c r="P45"/>
-      <c r="Q45"/>
+      <c r="O45" t="n">
+        <v>24.87</v>
+      </c>
+      <c r="P45" t="n">
+        <v>39.84</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>64.71</v>
+      </c>
       <c r="R45" t="n">
         <v>1857.8</v>
       </c>
@@ -2904,9 +3108,15 @@
         <v>28</v>
       </c>
       <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
+      <c r="O46" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="P46" t="n">
+        <v>40.22</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>65.67</v>
+      </c>
       <c r="R46" t="n">
         <v>2141.8</v>
       </c>
@@ -3002,9 +3212,15 @@
       <c r="N48" t="n">
         <v>1</v>
       </c>
-      <c r="O48"/>
-      <c r="P48"/>
-      <c r="Q48"/>
+      <c r="O48" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="P48" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>63.9</v>
+      </c>
       <c r="R48" t="n">
         <v>2622</v>
       </c>
@@ -3057,9 +3273,15 @@
       <c r="N49" t="n">
         <v>1.5</v>
       </c>
-      <c r="O49"/>
-      <c r="P49"/>
-      <c r="Q49"/>
+      <c r="O49" t="n">
+        <v>25.01</v>
+      </c>
+      <c r="P49" t="n">
+        <v>40.13</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>65.14</v>
+      </c>
       <c r="R49" t="n">
         <v>2324.6</v>
       </c>
@@ -3108,9 +3330,15 @@
         <v>32</v>
       </c>
       <c r="N50"/>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="Q50"/>
+      <c r="O50" t="n">
+        <v>25.05</v>
+      </c>
+      <c r="P50" t="n">
+        <v>40.59</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>65.64</v>
+      </c>
       <c r="R50" t="n">
         <v>1770.1</v>
       </c>
@@ -3206,9 +3434,15 @@
       <c r="N52" t="n">
         <v>1</v>
       </c>
-      <c r="O52"/>
-      <c r="P52"/>
-      <c r="Q52"/>
+      <c r="O52" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="P52" t="n">
+        <v>45.37</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>67.53</v>
+      </c>
       <c r="R52" t="n">
         <v>2366.4</v>
       </c>
@@ -3261,9 +3495,15 @@
       <c r="N53" t="n">
         <v>1</v>
       </c>
-      <c r="O53"/>
-      <c r="P53"/>
-      <c r="Q53"/>
+      <c r="O53" t="n">
+        <v>22.38</v>
+      </c>
+      <c r="P53" t="n">
+        <v>45.29</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>67.67</v>
+      </c>
       <c r="R53" t="n">
         <v>1830.2</v>
       </c>
@@ -3312,9 +3552,15 @@
         <v>31</v>
       </c>
       <c r="N54"/>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
+      <c r="O54" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="P54" t="n">
+        <v>44.29</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>67.24</v>
+      </c>
       <c r="R54" t="n">
         <v>1608.9</v>
       </c>
@@ -3412,9 +3658,15 @@
       <c r="N56" t="n">
         <v>1.5</v>
       </c>
-      <c r="O56"/>
-      <c r="P56"/>
-      <c r="Q56"/>
+      <c r="O56" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="P56" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>67.81</v>
+      </c>
       <c r="R56" t="n">
         <v>2932.9</v>
       </c>
@@ -3469,9 +3721,15 @@
       <c r="N57" t="n">
         <v>1</v>
       </c>
-      <c r="O57"/>
-      <c r="P57"/>
-      <c r="Q57"/>
+      <c r="O57" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="P57" t="n">
+        <v>43.36</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>66.75</v>
+      </c>
       <c r="R57" t="n">
         <v>2496.1</v>
       </c>
@@ -3522,9 +3780,15 @@
         <v>32</v>
       </c>
       <c r="N58"/>
-      <c r="O58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
+      <c r="O58" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="P58" t="n">
+        <v>44.32</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>68.17</v>
+      </c>
       <c r="R58" t="n">
         <v>2049.6</v>
       </c>
@@ -3620,9 +3884,15 @@
       <c r="N60" t="n">
         <v>2</v>
       </c>
-      <c r="O60"/>
-      <c r="P60"/>
-      <c r="Q60"/>
+      <c r="O60" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="P60" t="n">
+        <v>45.46</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>67.47</v>
+      </c>
       <c r="R60" t="n">
         <v>2470.5</v>
       </c>
@@ -3675,9 +3945,15 @@
       <c r="N61" t="n">
         <v>1</v>
       </c>
-      <c r="O61"/>
-      <c r="P61"/>
-      <c r="Q61"/>
+      <c r="O61" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="P61" t="n">
+        <v>45.34</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>68.45</v>
+      </c>
       <c r="R61" t="n">
         <v>1921.2</v>
       </c>
@@ -3726,9 +4002,15 @@
         <v>34</v>
       </c>
       <c r="N62"/>
-      <c r="O62"/>
-      <c r="P62"/>
-      <c r="Q62"/>
+      <c r="O62" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="P62" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>69.57</v>
+      </c>
       <c r="R62" t="n">
         <v>1865.3</v>
       </c>
@@ -3824,9 +4106,15 @@
       <c r="N64" t="n">
         <v>1</v>
       </c>
-      <c r="O64"/>
-      <c r="P64"/>
-      <c r="Q64"/>
+      <c r="O64" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="P64" t="n">
+        <v>42.41</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>65.7</v>
+      </c>
       <c r="R64" t="n">
         <v>2575.4</v>
       </c>
@@ -3879,9 +4167,15 @@
       <c r="N65" t="n">
         <v>1</v>
       </c>
-      <c r="O65"/>
-      <c r="P65"/>
-      <c r="Q65"/>
+      <c r="O65" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="P65" t="n">
+        <v>42.02</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>65.97</v>
+      </c>
       <c r="R65" t="n">
         <v>2644.1</v>
       </c>
@@ -3930,9 +4224,15 @@
         <v>31</v>
       </c>
       <c r="N66"/>
-      <c r="O66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
+      <c r="O66" t="n">
+        <v>24.03</v>
+      </c>
+      <c r="P66" t="n">
+        <v>43.73</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>67.76</v>
+      </c>
       <c r="R66" t="n">
         <v>1927.5</v>
       </c>
@@ -4028,9 +4328,15 @@
       <c r="N68" t="n">
         <v>1.5</v>
       </c>
-      <c r="O68"/>
-      <c r="P68"/>
-      <c r="Q68"/>
+      <c r="O68" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="P68" t="n">
+        <v>41.35</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>64.55</v>
+      </c>
       <c r="R68" t="n">
         <v>2461.6</v>
       </c>
@@ -4083,9 +4389,15 @@
       <c r="N69" t="n">
         <v>1.5</v>
       </c>
-      <c r="O69"/>
-      <c r="P69"/>
-      <c r="Q69"/>
+      <c r="O69" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="P69" t="n">
+        <v>41.61</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>64.85</v>
+      </c>
       <c r="R69" t="n">
         <v>2498.2</v>
       </c>
@@ -4134,9 +4446,15 @@
         <v>38</v>
       </c>
       <c r="N70"/>
-      <c r="O70"/>
-      <c r="P70"/>
-      <c r="Q70"/>
+      <c r="O70" t="n">
+        <v>24.18</v>
+      </c>
+      <c r="P70" t="n">
+        <v>40.84</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>65.02</v>
+      </c>
       <c r="R70" t="n">
         <v>2221.6</v>
       </c>
@@ -4232,9 +4550,15 @@
       <c r="N72" t="n">
         <v>2</v>
       </c>
-      <c r="O72"/>
-      <c r="P72"/>
-      <c r="Q72"/>
+      <c r="O72" t="n">
+        <v>22.78</v>
+      </c>
+      <c r="P72" t="n">
+        <v>46.58</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>69.36</v>
+      </c>
       <c r="R72" t="n">
         <v>2711.9</v>
       </c>
@@ -4287,9 +4611,15 @@
       <c r="N73" t="n">
         <v>2</v>
       </c>
-      <c r="O73"/>
-      <c r="P73"/>
-      <c r="Q73"/>
+      <c r="O73" t="n">
+        <v>22.32</v>
+      </c>
+      <c r="P73" t="n">
+        <v>47.59</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>69.91</v>
+      </c>
       <c r="R73" t="n">
         <v>2272.5</v>
       </c>
@@ -4338,9 +4668,15 @@
         <v>32</v>
       </c>
       <c r="N74"/>
-      <c r="O74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
+      <c r="O74" t="n">
+        <v>22.78</v>
+      </c>
+      <c r="P74" t="n">
+        <v>46.77</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>69.55</v>
+      </c>
       <c r="R74" t="n">
         <v>1904.8</v>
       </c>
@@ -4436,9 +4772,15 @@
       <c r="N76" t="n">
         <v>2</v>
       </c>
-      <c r="O76"/>
-      <c r="P76"/>
-      <c r="Q76"/>
+      <c r="O76" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="P76" t="n">
+        <v>46.73</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>69.33</v>
+      </c>
       <c r="R76" t="n">
         <v>2770.8</v>
       </c>
@@ -4491,9 +4833,15 @@
       <c r="N77" t="n">
         <v>1.5</v>
       </c>
-      <c r="O77"/>
-      <c r="P77"/>
-      <c r="Q77"/>
+      <c r="O77" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="P77" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>68.85</v>
+      </c>
       <c r="R77" t="n">
         <v>2264.1</v>
       </c>
@@ -4542,9 +4890,15 @@
         <v>38</v>
       </c>
       <c r="N78"/>
-      <c r="O78"/>
-      <c r="P78"/>
-      <c r="Q78"/>
+      <c r="O78" t="n">
+        <v>23.45</v>
+      </c>
+      <c r="P78" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>68.15</v>
+      </c>
       <c r="R78" t="n">
         <v>1758.5</v>
       </c>
@@ -4640,9 +4994,15 @@
       <c r="N80" t="n">
         <v>1</v>
       </c>
-      <c r="O80"/>
-      <c r="P80"/>
-      <c r="Q80"/>
+      <c r="O80" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="P80" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>68.82</v>
+      </c>
       <c r="R80" t="n">
         <v>2327.5</v>
       </c>
@@ -4695,9 +5055,15 @@
       <c r="N81" t="n">
         <v>1.5</v>
       </c>
-      <c r="O81"/>
-      <c r="P81"/>
-      <c r="Q81"/>
+      <c r="O81" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="P81" t="n">
+        <v>46.58</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>69.31</v>
+      </c>
       <c r="R81" t="n">
         <v>2179.4</v>
       </c>
@@ -4746,9 +5112,15 @@
         <v>39</v>
       </c>
       <c r="N82"/>
-      <c r="O82"/>
-      <c r="P82"/>
-      <c r="Q82"/>
+      <c r="O82" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="P82" t="n">
+        <v>45.47</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>68.52</v>
+      </c>
       <c r="R82" t="n">
         <v>2073.6</v>
       </c>
@@ -4846,9 +5218,15 @@
       <c r="N84" t="n">
         <v>1.5</v>
       </c>
-      <c r="O84"/>
-      <c r="P84"/>
-      <c r="Q84"/>
+      <c r="O84" t="n">
+        <v>23.87</v>
+      </c>
+      <c r="P84" t="n">
+        <v>42.06</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>65.93</v>
+      </c>
       <c r="R84" t="n">
         <v>2832.9</v>
       </c>
@@ -4901,9 +5279,15 @@
       <c r="N85" t="n">
         <v>1.5</v>
       </c>
-      <c r="O85"/>
-      <c r="P85"/>
-      <c r="Q85"/>
+      <c r="O85" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="P85" t="n">
+        <v>41.74</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>65.57</v>
+      </c>
       <c r="R85" t="n">
         <v>2431.2</v>
       </c>
@@ -4952,9 +5336,15 @@
         <v>31</v>
       </c>
       <c r="N86"/>
-      <c r="O86"/>
-      <c r="P86"/>
-      <c r="Q86"/>
+      <c r="O86" t="n">
+        <v>24.12</v>
+      </c>
+      <c r="P86" t="n">
+        <v>42.57</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>66.69</v>
+      </c>
       <c r="R86" t="n">
         <v>2042.8</v>
       </c>
@@ -5050,9 +5440,15 @@
       <c r="N88" t="n">
         <v>2</v>
       </c>
-      <c r="O88"/>
-      <c r="P88"/>
-      <c r="Q88"/>
+      <c r="O88" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="P88" t="n">
+        <v>46.46</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>68.79</v>
+      </c>
       <c r="R88" t="n">
         <v>2848.9</v>
       </c>
@@ -5105,9 +5501,15 @@
       <c r="N89" t="n">
         <v>1</v>
       </c>
-      <c r="O89"/>
-      <c r="P89"/>
-      <c r="Q89"/>
+      <c r="O89" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="P89" t="n">
+        <v>47.19</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>69.88</v>
+      </c>
       <c r="R89" t="n">
         <v>2536.2</v>
       </c>
@@ -5156,9 +5558,15 @@
         <v>40</v>
       </c>
       <c r="N90"/>
-      <c r="O90"/>
-      <c r="P90"/>
-      <c r="Q90"/>
+      <c r="O90" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="P90" t="n">
+        <v>44.57</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>67.88</v>
+      </c>
       <c r="R90" t="n">
         <v>2375.5</v>
       </c>
@@ -5205,9 +5613,15 @@
         <v>40</v>
       </c>
       <c r="N91"/>
-      <c r="O91"/>
-      <c r="P91"/>
-      <c r="Q91"/>
+      <c r="O91" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="P91" t="n">
+        <v>44.57</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>67.88</v>
+      </c>
       <c r="R91" t="n">
         <v>2375.5</v>
       </c>
@@ -5303,9 +5717,15 @@
       <c r="N93" t="n">
         <v>2</v>
       </c>
-      <c r="O93"/>
-      <c r="P93"/>
-      <c r="Q93"/>
+      <c r="O93" t="n">
+        <v>24.85</v>
+      </c>
+      <c r="P93" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>65.15</v>
+      </c>
       <c r="R93" t="n">
         <v>2885.8</v>
       </c>
@@ -5358,9 +5778,15 @@
       <c r="N94" t="n">
         <v>2</v>
       </c>
-      <c r="O94"/>
-      <c r="P94"/>
-      <c r="Q94"/>
+      <c r="O94" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="P94" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>66.16</v>
+      </c>
       <c r="R94" t="n">
         <v>2341.9</v>
       </c>
@@ -5409,9 +5835,15 @@
         <v>38</v>
       </c>
       <c r="N95"/>
-      <c r="O95"/>
-      <c r="P95"/>
-      <c r="Q95"/>
+      <c r="O95" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="P95" t="n">
+        <v>41.62</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>67.02</v>
+      </c>
       <c r="R95" t="n">
         <v>2434.4</v>
       </c>
@@ -5507,9 +5939,15 @@
       <c r="N97" t="n">
         <v>1.5</v>
       </c>
-      <c r="O97"/>
-      <c r="P97"/>
-      <c r="Q97"/>
+      <c r="O97" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="P97" t="n">
+        <v>46.34</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>68.96</v>
+      </c>
       <c r="R97" t="n">
         <v>2829.6</v>
       </c>
@@ -5562,9 +6000,15 @@
       <c r="N98" t="n">
         <v>1.5</v>
       </c>
-      <c r="O98"/>
-      <c r="P98"/>
-      <c r="Q98"/>
+      <c r="O98" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="P98" t="n">
+        <v>45.33</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>67.91</v>
+      </c>
       <c r="R98" t="n">
         <v>955.7</v>
       </c>
@@ -5613,9 +6057,15 @@
         <v>37</v>
       </c>
       <c r="N99"/>
-      <c r="O99"/>
-      <c r="P99"/>
-      <c r="Q99"/>
+      <c r="O99" t="n">
+        <v>23.46</v>
+      </c>
+      <c r="P99" t="n">
+        <v>45.29</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>68.75</v>
+      </c>
       <c r="R99" t="n">
         <v>1741.2</v>
       </c>
@@ -5711,9 +6161,15 @@
       <c r="N101" t="n">
         <v>1.5</v>
       </c>
-      <c r="O101"/>
-      <c r="P101"/>
-      <c r="Q101"/>
+      <c r="O101" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="P101" t="n">
+        <v>43.84</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>66.67</v>
+      </c>
       <c r="R101" t="n">
         <v>2976.1</v>
       </c>
@@ -5766,9 +6222,15 @@
       <c r="N102" t="n">
         <v>1.5</v>
       </c>
-      <c r="O102"/>
-      <c r="P102"/>
-      <c r="Q102"/>
+      <c r="O102" t="n">
+        <v>23.35</v>
+      </c>
+      <c r="P102" t="n">
+        <v>43.24</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>66.59</v>
+      </c>
       <c r="R102" t="n">
         <v>2334.7</v>
       </c>
@@ -5817,9 +6279,15 @@
         <v>34</v>
       </c>
       <c r="N103"/>
-      <c r="O103"/>
-      <c r="P103"/>
-      <c r="Q103"/>
+      <c r="O103" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="P103" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>67.55</v>
+      </c>
       <c r="R103" t="n">
         <v>1822.9</v>
       </c>
@@ -5915,9 +6383,15 @@
       <c r="N105" t="n">
         <v>2.5</v>
       </c>
-      <c r="O105"/>
-      <c r="P105"/>
-      <c r="Q105"/>
+      <c r="O105" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="P105" t="n">
+        <v>42.17</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>65.25</v>
+      </c>
       <c r="R105" t="n">
         <v>2779.9</v>
       </c>
@@ -5970,9 +6444,15 @@
       <c r="N106" t="n">
         <v>1.5</v>
       </c>
-      <c r="O106"/>
-      <c r="P106"/>
-      <c r="Q106"/>
+      <c r="O106" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="P106" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>65.09</v>
+      </c>
       <c r="R106" t="n">
         <v>2624.3</v>
       </c>
@@ -6021,9 +6501,15 @@
         <v>36</v>
       </c>
       <c r="N107"/>
-      <c r="O107"/>
-      <c r="P107"/>
-      <c r="Q107"/>
+      <c r="O107" t="n">
+        <v>24.53</v>
+      </c>
+      <c r="P107" t="n">
+        <v>41.56</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>66.09</v>
+      </c>
       <c r="R107" t="n">
         <v>1774</v>
       </c>
@@ -6119,9 +6605,15 @@
       <c r="N109" t="n">
         <v>1.5</v>
       </c>
-      <c r="O109"/>
-      <c r="P109"/>
-      <c r="Q109"/>
+      <c r="O109" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="P109" t="n">
+        <v>44.09</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>67.13</v>
+      </c>
       <c r="R109" t="n">
         <v>2778.3</v>
       </c>
@@ -6174,9 +6666,15 @@
       <c r="N110" t="n">
         <v>1.5</v>
       </c>
-      <c r="O110"/>
-      <c r="P110"/>
-      <c r="Q110"/>
+      <c r="O110" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="P110" t="n">
+        <v>43.67</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>67.03</v>
+      </c>
       <c r="R110" t="n">
         <v>2271</v>
       </c>
@@ -6225,9 +6723,15 @@
         <v>32</v>
       </c>
       <c r="N111"/>
-      <c r="O111"/>
-      <c r="P111"/>
-      <c r="Q111"/>
+      <c r="O111" t="n">
+        <v>23.22</v>
+      </c>
+      <c r="P111" t="n">
+        <v>43.63</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>66.85</v>
+      </c>
       <c r="R111" t="n">
         <v>1945.8</v>
       </c>
@@ -6323,9 +6827,15 @@
       <c r="N113" t="n">
         <v>1.5</v>
       </c>
-      <c r="O113"/>
-      <c r="P113"/>
-      <c r="Q113"/>
+      <c r="O113" t="n">
+        <v>24.04</v>
+      </c>
+      <c r="P113" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>64.44</v>
+      </c>
       <c r="R113" t="n">
         <v>2734.6</v>
       </c>
@@ -6378,9 +6888,15 @@
       <c r="N114" t="n">
         <v>1.5</v>
       </c>
-      <c r="O114"/>
-      <c r="P114"/>
-      <c r="Q114"/>
+      <c r="O114" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="P114" t="n">
+        <v>40.75</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>63.63</v>
+      </c>
       <c r="R114" t="n">
         <v>2328.5</v>
       </c>
@@ -6429,9 +6945,15 @@
         <v>37</v>
       </c>
       <c r="N115"/>
-      <c r="O115"/>
-      <c r="P115"/>
-      <c r="Q115"/>
+      <c r="O115" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="P115" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>64.65</v>
+      </c>
       <c r="R115" t="n">
         <v>2311.6</v>
       </c>
@@ -6527,9 +7049,15 @@
       <c r="N117" t="n">
         <v>1</v>
       </c>
-      <c r="O117"/>
-      <c r="P117"/>
-      <c r="Q117"/>
+      <c r="O117" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="P117" t="n">
+        <v>42.09</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>65.21</v>
+      </c>
       <c r="R117" t="n">
         <v>2327.7</v>
       </c>
@@ -6582,9 +7110,15 @@
       <c r="N118" t="n">
         <v>1</v>
       </c>
-      <c r="O118"/>
-      <c r="P118"/>
-      <c r="Q118"/>
+      <c r="O118" t="n">
+        <v>21.81</v>
+      </c>
+      <c r="P118" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>64.61</v>
+      </c>
       <c r="R118" t="n">
         <v>2121.9</v>
       </c>
@@ -6633,9 +7167,15 @@
         <v>30</v>
       </c>
       <c r="N119"/>
-      <c r="O119"/>
-      <c r="P119"/>
-      <c r="Q119"/>
+      <c r="O119" t="n">
+        <v>22</v>
+      </c>
+      <c r="P119" t="n">
+        <v>44.28</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>66.28</v>
+      </c>
       <c r="R119" t="n">
         <v>1914.7</v>
       </c>
@@ -6733,9 +7273,15 @@
       <c r="N121" t="n">
         <v>1.5</v>
       </c>
-      <c r="O121"/>
-      <c r="P121"/>
-      <c r="Q121"/>
+      <c r="O121" t="n">
+        <v>23.59</v>
+      </c>
+      <c r="P121" t="n">
+        <v>41.64</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>65.23</v>
+      </c>
       <c r="R121" t="n">
         <v>2219.6</v>
       </c>
@@ -6790,9 +7336,15 @@
       <c r="N122" t="n">
         <v>1.5</v>
       </c>
-      <c r="O122"/>
-      <c r="P122"/>
-      <c r="Q122"/>
+      <c r="O122" t="n">
+        <v>23.47</v>
+      </c>
+      <c r="P122" t="n">
+        <v>42.32</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>65.79</v>
+      </c>
       <c r="R122" t="n">
         <v>2487.2</v>
       </c>
@@ -6843,9 +7395,15 @@
         <v>30</v>
       </c>
       <c r="N123"/>
-      <c r="O123"/>
-      <c r="P123"/>
-      <c r="Q123"/>
+      <c r="O123" t="n">
+        <v>23.35</v>
+      </c>
+      <c r="P123" t="n">
+        <v>42.14</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>65.49</v>
+      </c>
       <c r="R123" t="n">
         <v>2166</v>
       </c>
